--- a/code/notebooks/phase1results_new/itemsVsacc.xlsx
+++ b/code/notebooks/phase1results_new/itemsVsacc.xlsx
@@ -458,7 +458,7 @@
         <v>0.5725568015656384</v>
       </c>
       <c r="C2" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.5671583881210089</v>
       </c>
       <c r="C3" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.5733202828553585</v>
       </c>
       <c r="C4" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.5751495708917781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002476175362547501</v>
+        <v>0.002438462228080673</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0.575888943013941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001206307901973225</v>
+        <v>0.001168594767506397</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0.5764026906966634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00169736627597571</v>
+        <v>0.001659653141508882</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.5759854837189562</v>
       </c>
       <c r="C8" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5749098978107722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002297714066008848</v>
+        <v>0.0001920582721340567</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.5741884510966418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002231822691076398</v>
+        <v>0.00219410955660957</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0.5737133516920583</v>
       </c>
       <c r="C11" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0.5735433984048887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009826742937873102</v>
+        <v>0.0009449611593204822</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.5752985493410152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002543636641775076</v>
+        <v>0.002505923507308248</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.5760414333704824</v>
       </c>
       <c r="C14" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.5786758599551591</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00405326564690955</v>
+        <v>0.004015552512442721</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>0.5788496472290224</v>
       </c>
       <c r="C16" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0.5790182477745535</v>
       </c>
       <c r="C17" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.5778266643165416</v>
       </c>
       <c r="C18" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5793419601439361</v>
       </c>
       <c r="C19" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.5835253327810535</v>
       </c>
       <c r="C20" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.5869216084463671</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003303434526400214</v>
+        <v>0.003265721391933386</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.5889293782710885</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001231499536487027</v>
+        <v>8.543681918187461e-05</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.5901640238711222</v>
       </c>
       <c r="C23" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.5923236163848483</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0008858118599043124</v>
+        <v>0.0008480987254374843</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.5903238899537229</v>
       </c>
       <c r="C25" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.593779392462944</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002108744851693024</v>
+        <v>0.002071031717226196</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.5960295795622798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0008772962039703507</v>
+        <v>0.0008395830695035226</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.5991735387413265</v>
       </c>
       <c r="C28" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.6010129071853439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001175108951380245</v>
+        <v>7.979776067119641e-05</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.6004515779127416</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001206597224692272</v>
+        <v>8.294658800239915e-05</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.6037910431321378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007749004331271966</v>
+        <v>0.007711291196805138</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.6036251764825969</v>
       </c>
       <c r="C32" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.6025761268206018</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0005341907771274872</v>
+        <v>0.0004964776426606591</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.6031201266760797</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003065435121695909</v>
+        <v>0.003027721987229081</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.6054396633859309</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004294382481784519</v>
+        <v>0.00425666934731769</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.610688951891545</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004662102729299624</v>
+        <v>0.004624389594832795</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.6079180358929965</v>
       </c>
       <c r="C37" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.6075005939871412</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001527824984445017</v>
+        <v>0.001490111849978189</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.6081733151194114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003599595851720187</v>
+        <v>0.003561882717253359</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.6060266848370223</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0003612566023603826</v>
+        <v>0.0003235434678935544</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.6065414683301562</v>
       </c>
       <c r="C41" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0.6052177321573919</v>
       </c>
       <c r="C42" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0.6095189594394269</v>
       </c>
       <c r="C43" t="n">
-        <v>0.008279253063768508</v>
+        <v>0.008241539929301682</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0.6126894440883216</v>
       </c>
       <c r="C44" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0.6144710806260169</v>
       </c>
       <c r="C45" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0.6170299320302021</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006662668860710094</v>
+        <v>0.006624955726243266</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0.6286238496120603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02174635399649037</v>
+        <v>0.02170864086202354</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0.6311620879940592</v>
       </c>
       <c r="C48" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0.6349849750120137</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005322681435831151</v>
+        <v>0.005284968301364323</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0.6359525520316356</v>
       </c>
       <c r="C50" t="n">
-        <v>0.007730023423261386</v>
+        <v>0.007692310288794558</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0.6382691542346073</v>
       </c>
       <c r="C51" t="n">
-        <v>0.007300279663223902</v>
+        <v>0.007262566528757074</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0.6443453053956684</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001649390121115456</v>
+        <v>0.001611676986648628</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.6457823175302599</v>
       </c>
       <c r="C53" t="n">
-        <v>0.002635769512584187</v>
+        <v>0.002598056378117359</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0.6555692835261704</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02167840122235129</v>
+        <v>0.02164068808788446</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0.6598068808443922</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005499473580288497</v>
+        <v>0.005461760445821669</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0.6680324893150914</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01282030441120208</v>
+        <v>0.01278259127673526</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0.6674823108035618</v>
       </c>
       <c r="C57" t="n">
-        <v>0.004637875659851448</v>
+        <v>0.00460016252538462</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>0.6625795415786733</v>
       </c>
       <c r="C58" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>0.6601343182499181</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005536888689295956</v>
+        <v>0.005499175554829128</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>0.6647395717268332</v>
       </c>
       <c r="C60" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0.661786463295375</v>
       </c>
       <c r="C61" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0.6569380498182285</v>
       </c>
       <c r="C62" t="n">
-        <v>0.003379953642251536</v>
+        <v>0.003342240507784707</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0.6597207416777109</v>
       </c>
       <c r="C63" t="n">
-        <v>0.008290750336609811</v>
+        <v>0.008253037202142984</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0.6603179646711441</v>
       </c>
       <c r="C64" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0.6696511823700161</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01168421123430803</v>
+        <v>0.0116464980998412</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0.671944104312823</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0148146009213289</v>
+        <v>0.01477688778686207</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0.676137204532379</v>
       </c>
       <c r="C67" t="n">
-        <v>0.00913392841841491</v>
+        <v>0.009096215283948083</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0.6791700549617883</v>
       </c>
       <c r="C68" t="n">
-        <v>0.007015824984369303</v>
+        <v>0.006978111849902474</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0.6701945032010785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0006601918204167765</v>
+        <v>0.0006224786859499484</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0.6725458088521048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005432397396568984</v>
+        <v>0.005394684262102155</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.6697662055396412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.003779519381176834</v>
+        <v>0.003741806246710006</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.6657649597028228</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001412012805832109</v>
+        <v>0.001374299671365281</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.6580320459197317</v>
       </c>
       <c r="C73" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.6709265414391824</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01869705377509972</v>
+        <v>0.01865934064063289</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.6736455088136929</v>
       </c>
       <c r="C75" t="n">
-        <v>0.00544685700842967</v>
+        <v>0.005409143873962841</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.6763471705005685</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01725751007763476</v>
+        <v>0.01721979694316793</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.672871356932938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.009248535989390511</v>
+        <v>0.009210822854923684</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.6888867078719892</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01895143106047414</v>
+        <v>0.01891371792600732</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.6908711924734772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.008007167606505567</v>
+        <v>0.007969454472038741</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.6968190575865238</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0141606745702275</v>
+        <v>0.01412296143576067</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0.7038202486438201</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007882401962569167</v>
+        <v>0.007844688828102341</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0.7097445617240246</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02077385932712572</v>
+        <v>0.0207361461926589</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0.7101456025517793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01511427327545428</v>
+        <v>0.01507656014098745</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0.7136089218203316</v>
       </c>
       <c r="C84" t="n">
-        <v>0.007241376570656942</v>
+        <v>0.007203663436190113</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0.7173446694678697</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0128121392169069</v>
+        <v>0.01277442608244007</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0.7088096328777657</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005423434754932001</v>
+        <v>0.005385721620465173</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0.7170538658255861</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0174690195648365</v>
+        <v>0.01743130643036967</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0.7050793587798363</v>
       </c>
       <c r="C88" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.7080310237035727</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01362694364686009</v>
+        <v>0.01358923051239327</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>0.7117127148469075</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01942450420016565</v>
+        <v>0.01938679106569883</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0.7204225467865011</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01749493581499661</v>
+        <v>0.01745722268052978</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.7246230592824886</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01876745300462863</v>
+        <v>0.0187297398701618</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0.7364040724070113</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0161702358856135</v>
+        <v>0.01613252275114668</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0.7404174969469043</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01979601192698922</v>
+        <v>0.01975829879252239</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0.7497297450775849</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01883331747938815</v>
+        <v>0.01879560434492132</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.7558368530253251</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008564119150123463</v>
+        <v>0.008526406015656636</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.7660239771004391</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02804991128353189</v>
+        <v>0.02801219814906506</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.7647397389797459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01020042830443367</v>
+        <v>0.01016271516996685</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.7651826219306963</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008733618418117699</v>
+        <v>0.008695905283650872</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.770430368836245</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01545586144991236</v>
+        <v>0.01541814831544554</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.7691200000277214</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02323938410631073</v>
+        <v>0.0232016709718439</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.775034231447028</v>
       </c>
       <c r="C102" t="n">
-        <v>0.008168707723259215</v>
+        <v>0.008130994588792389</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.7801122283800348</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01917925262078815</v>
+        <v>0.01914153948632132</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.785465704603942</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01189925847054351</v>
+        <v>0.01186154533607669</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.784420642421139</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01044329150883461</v>
+        <v>0.01040557837436779</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0.7899807547948062</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02865150206300292</v>
+        <v>0.0286137889285361</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>0.7894002943751297</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01458771373884225</v>
+        <v>0.01455000060437542</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>0.7904932500289723</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01632207526204035</v>
+        <v>0.01628436212757352</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>0.7968135568932495</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02123285882787819</v>
+        <v>0.02119514569341137</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.8012551292912931</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02027155477310034</v>
+        <v>0.02023384163863351</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>0.8051711845986539</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01870002374193793</v>
+        <v>0.0186623106074711</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>0.8076047335275425</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02082354429694401</v>
+        <v>0.02078583116247718</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>0.7992459317612498</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008191658910229252</v>
+        <v>0.008153945775762426</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>0.804823654129908</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02027494522072947</v>
+        <v>0.02023723208626264</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>0.807193460451295</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01982297090994318</v>
+        <v>0.01978525777547635</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>0.8102308673343551</v>
       </c>
       <c r="C116" t="n">
-        <v>0.002639326656041055</v>
+        <v>0.002601613521574227</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>0.8119497007302391</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0212894893642278</v>
+        <v>0.02125177622976097</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0.8123065792245939</v>
       </c>
       <c r="C118" t="n">
-        <v>0.02195853495155125</v>
+        <v>0.02192082181708442</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>0.813204275462639</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01162253244624163</v>
+        <v>0.01158481931177481</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.8045053811951083</v>
       </c>
       <c r="C120" t="n">
-        <v>0.008662884401977792</v>
+        <v>0.008625171267510966</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.8087532522432497</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01772066198694225</v>
+        <v>0.01768294885247542</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.8000594821744693</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01067763534311249</v>
+        <v>0.01063992220864567</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.7907591390204272</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009996784747340847</v>
+        <v>0.009959071612874021</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.7946373621144878</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02334094696255512</v>
+        <v>0.02330323382808829</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.7970386850997644</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02212769552980199</v>
+        <v>0.02208998239533516</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.8018317183301447</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02495998037432232</v>
+        <v>0.02492226723985549</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.7950733263967589</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01941841897665586</v>
+        <v>0.01938070584218904</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.7959481415507441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02508652517795228</v>
+        <v>0.02504881204348545</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.8015179253099236</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02117566664126241</v>
+        <v>0.02113795350679558</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.8025473622121591</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01930121138832746</v>
+        <v>0.01926349825386063</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0.8035450869149513</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02269791604426891</v>
+        <v>0.02266020290980208</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0.80796395275341</v>
       </c>
       <c r="C132" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0.802087588431972</v>
       </c>
       <c r="C133" t="n">
-        <v>0.008785845070249203</v>
+        <v>0.008748131935782376</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0.8029761007033764</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01784063277930018</v>
+        <v>0.01780291964483335</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0.7991657731919133</v>
       </c>
       <c r="C135" t="n">
-        <v>0.006154486287935307</v>
+        <v>0.006116773153468479</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0.7837257960026989</v>
       </c>
       <c r="C136" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0.7877750096092421</v>
       </c>
       <c r="C137" t="n">
-        <v>0.02730781335645257</v>
+        <v>0.02727010022198574</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0.7805870849135229</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01052110706917678</v>
+        <v>0.01048339393470996</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0.7794903612733836</v>
       </c>
       <c r="C139" t="n">
-        <v>0.016160310379895</v>
+        <v>0.01612259724542817</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.7740330671040497</v>
       </c>
       <c r="C140" t="n">
-        <v>0.009206385924729525</v>
+        <v>0.009168672790262698</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.7695620763210108</v>
       </c>
       <c r="C141" t="n">
-        <v>0.01365473349422306</v>
+        <v>0.01361702035975624</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>0.768243398759808</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01619977243580321</v>
+        <v>0.01616205930133638</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0.7684648817179566</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01056215201300858</v>
+        <v>0.01052443887854175</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>0.7686474622823125</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01806788191820181</v>
+        <v>0.01803016878373499</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>0.7676345100902382</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01160050315633154</v>
+        <v>0.01156279002186471</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.7708269570087863</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01841375906038732</v>
+        <v>0.01837604592592049</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.7777989652494208</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0167956055565427</v>
+        <v>0.01675789242207587</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.7765415871736975</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01436122505478254</v>
+        <v>0.01432351192031572</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.7788182329411332</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01359501549946815</v>
+        <v>0.01355730236500133</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.7820363491704784</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0158397491824306</v>
+        <v>0.01580203604796377</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.7842753234362693</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01684278022155926</v>
+        <v>0.01680506708709243</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.7736205078198111</v>
       </c>
       <c r="C152" t="n">
-        <v>0.005393507218069438</v>
+        <v>0.00535579408360261</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.7798489414138603</v>
       </c>
       <c r="C153" t="n">
-        <v>0.01425290680282832</v>
+        <v>0.0142151936683615</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.7764683723142056</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02022716301310136</v>
+        <v>0.02018944987863453</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.7817365953293377</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02265511199470627</v>
+        <v>0.02261739886023945</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.7852175598382065</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01710547903989616</v>
+        <v>0.01706776590542933</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>0.7896183597384906</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01611160950536369</v>
+        <v>0.01607389637089686</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>0.7924287289002215</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01399566860901076</v>
+        <v>0.01395795547454393</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>0.7951368793084926</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01835122772408525</v>
+        <v>0.01831351458961842</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.7865625283829963</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01524792729685603</v>
+        <v>0.01521021416238921</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>0.7915157833874213</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0185225409532848</v>
+        <v>0.01848482781881797</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>0.7941003571550405</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01861999956910472</v>
+        <v>0.01858228643463789</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>0.7993957805834196</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01780384889488965</v>
+        <v>0.01776613576042282</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.8008498974560714</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0171973996207892</v>
+        <v>0.01715968648632238</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.8036583371202591</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01448410413983099</v>
+        <v>0.01444639100536417</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.8060158382493096</v>
       </c>
       <c r="C166" t="n">
-        <v>0.02282457117258563</v>
+        <v>0.0227868580381188</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.8110414413250399</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0224417280566021</v>
+        <v>0.02240401492213527</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.8103640182143669</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01878512188107818</v>
+        <v>0.01874740874661135</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>0.8139725984636091</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02150989366545595</v>
+        <v>0.02147218053098912</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.8112930268323559</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01696819254598288</v>
+        <v>0.01693047941151605</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.8162017056022828</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02345223640204252</v>
+        <v>0.02341452326757569</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.8170527074066907</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0203138756662632</v>
+        <v>0.02027616253179637</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.8086419985822558</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01302218911126381</v>
+        <v>0.01298447597679698</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.8072796185623256</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01588095847198575</v>
+        <v>0.01584324533751892</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.8101516153756557</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01761447995802671</v>
+        <v>0.01757676682355988</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.8153844132367876</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01905234610740943</v>
+        <v>0.0190146329729426</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.7980235636647725</v>
       </c>
       <c r="C177" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.8040754979681835</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02541168708376456</v>
+        <v>0.02537397394929773</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.8090897243238814</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01925767170551249</v>
+        <v>0.01921995857104566</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.8135521702261691</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01645030552807129</v>
+        <v>0.01641259239360447</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.8174930572833278</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0182986750891008</v>
+        <v>0.01826096195463398</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>0.8102516791134154</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01153204445434138</v>
+        <v>0.01149433131987455</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>0.8140703213827245</v>
       </c>
       <c r="C183" t="n">
-        <v>0.02204888530563139</v>
+        <v>0.02201117217116456</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>0.8189306497005785</v>
       </c>
       <c r="C184" t="n">
-        <v>0.02175316533164656</v>
+        <v>0.02171545219717973</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>0.8209987853775983</v>
       </c>
       <c r="C185" t="n">
-        <v>0.023519383856394</v>
+        <v>0.02348167072192717</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>0.8257947994212651</v>
       </c>
       <c r="C186" t="n">
-        <v>0.02246441496745141</v>
+        <v>0.02242670183298458</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>0.8210237120744053</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01234568948923467</v>
+        <v>0.01230797635476784</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>0.8164732072131483</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01722848812533137</v>
+        <v>0.01719077499086455</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.8213171728287424</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0195935735209284</v>
+        <v>0.01955586038646157</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.8083982435444479</v>
       </c>
       <c r="C190" t="n">
-        <v>0.009367136487177392</v>
+        <v>0.009329423352710565</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.8130512035642906</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01444522993847382</v>
+        <v>0.01440751680400699</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>0.8172437246110971</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02074480823288142</v>
+        <v>0.02070709509841459</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.8138010477070015</v>
       </c>
       <c r="C193" t="n">
-        <v>0.01366289783043824</v>
+        <v>0.01362518469597142</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.8115650180460449</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01773064780616682</v>
+        <v>0.01769293467169999</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.8161900504191668</v>
       </c>
       <c r="C195" t="n">
-        <v>0.02026613477660407</v>
+        <v>0.02022842164213725</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.812263650711657</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01217140735589467</v>
+        <v>0.01213369422142784</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.8147909115063333</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01985629989566259</v>
+        <v>0.01981858676119576</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.819247195163318</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01585447793217979</v>
+        <v>0.01581676479771297</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.8245341221680322</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01150076783343995</v>
+        <v>0.01146305469897312</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.8246078816614916</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01678920392064274</v>
+        <v>0.01675149078617591</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.8281435792325545</v>
       </c>
       <c r="C201" t="n">
-        <v>0.02391776427381742</v>
+        <v>0.0238800511393506</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.8260063144687988</v>
       </c>
       <c r="C202" t="n">
-        <v>0.02026649912992693</v>
+        <v>0.0202287859954601</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>0.8265025572868344</v>
       </c>
       <c r="C203" t="n">
-        <v>0.02542582028373329</v>
+        <v>0.02538810714926646</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>0.8094080094060221</v>
       </c>
       <c r="C204" t="n">
-        <v>0.005232461710005237</v>
+        <v>0.005194748575538408</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.8079059304952858</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0122679574742696</v>
+        <v>0.01223024433980277</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>0.8098581780290348</v>
       </c>
       <c r="C206" t="n">
-        <v>0.01583294828296066</v>
+        <v>0.01579523514849383</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>0.8108486709975248</v>
       </c>
       <c r="C207" t="n">
-        <v>0.01605974353945797</v>
+        <v>0.01602203040499114</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>0.8119858319233344</v>
       </c>
       <c r="C208" t="n">
-        <v>0.02967200937749497</v>
+        <v>0.02963429624302814</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>0.815675326134655</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0236494390947453</v>
+        <v>0.02361172596027847</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>0.8173500096762967</v>
       </c>
       <c r="C210" t="n">
-        <v>0.01930302267272039</v>
+        <v>0.01926530953825356</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>0.8166045707505778</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01683359464675441</v>
+        <v>0.01679588151228758</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.803661096796337</v>
       </c>
       <c r="C212" t="n">
-        <v>0.002569341371359833</v>
+        <v>0.002531628236893005</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.7997042042474305</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01224262213062479</v>
+        <v>0.01220490899615797</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>0.7917637509876239</v>
       </c>
       <c r="C214" t="n">
-        <v>0.009404922985719271</v>
+        <v>0.009367209851252445</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>0.7983209825082106</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0165423352432476</v>
+        <v>0.01650462210878077</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>0.7994560061289181</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01085383189447203</v>
+        <v>0.01081611876000521</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>0.8034713142657448</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01918596775118395</v>
+        <v>0.01914825461671713</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>0.8076280425164686</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0194944677810681</v>
+        <v>0.01945675464660128</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>0.8089024936658984</v>
       </c>
       <c r="C219" t="n">
-        <v>0.01872174187358095</v>
+        <v>0.01868402873911412</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>0.8107094471982383</v>
       </c>
       <c r="C220" t="n">
-        <v>0.01441387160403351</v>
+        <v>0.01437615846956668</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>0.8166504488897223</v>
       </c>
       <c r="C221" t="n">
-        <v>0.01668857381017879</v>
+        <v>0.01665086067571196</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>0.8207450287069935</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02151666773550595</v>
+        <v>0.02147895460103912</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>0.8262042451819089</v>
       </c>
       <c r="C223" t="n">
-        <v>0.020495912300564</v>
+        <v>0.02045819916609717</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>0.8289733767112123</v>
       </c>
       <c r="C224" t="n">
-        <v>0.01745932878508218</v>
+        <v>0.01742161565061535</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.8318613267830897</v>
       </c>
       <c r="C225" t="n">
-        <v>0.01767828185244489</v>
+        <v>0.01764056871797806</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.8337125379192449</v>
       </c>
       <c r="C226" t="n">
-        <v>0.01723150689204275</v>
+        <v>0.01719379375757592</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>0.8351731750071406</v>
       </c>
       <c r="C227" t="n">
-        <v>0.01934808706005278</v>
+        <v>0.01931037392558595</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>0.8390020085549224</v>
       </c>
       <c r="C228" t="n">
-        <v>0.019090506909044</v>
+        <v>0.01905279377457717</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>0.8421008118502957</v>
       </c>
       <c r="C229" t="n">
-        <v>0.01969911133123935</v>
+        <v>0.01966139819677252</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>0.8437637359049379</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01421706521102646</v>
+        <v>0.01417935207655963</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>0.842440963918266</v>
       </c>
       <c r="C231" t="n">
-        <v>0.008657562395049383</v>
+        <v>0.008619849260582556</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>0.8424316784519142</v>
       </c>
       <c r="C232" t="n">
-        <v>0.01501143724713526</v>
+        <v>0.01497372411266844</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>0.8445141136755084</v>
       </c>
       <c r="C233" t="n">
-        <v>0.01550680216329801</v>
+        <v>0.01546908902883118</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>0.8456988260217736</v>
       </c>
       <c r="C234" t="n">
-        <v>0.0159979277928216</v>
+        <v>0.01596021465835477</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>0.8404098680964848</v>
       </c>
       <c r="C235" t="n">
-        <v>0.01671133766893289</v>
+        <v>0.01667362453446606</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>0.8426784773267385</v>
       </c>
       <c r="C236" t="n">
-        <v>0.01520206130818864</v>
+        <v>0.01516434817372181</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.8442849350846411</v>
       </c>
       <c r="C237" t="n">
-        <v>0.01882859090065339</v>
+        <v>0.01879087776618657</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.8462757869955118</v>
       </c>
       <c r="C238" t="n">
-        <v>0.01274896667801408</v>
+        <v>0.01271125354354725</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>0.8476361274547611</v>
       </c>
       <c r="C239" t="n">
-        <v>0.01599157886182176</v>
+        <v>0.01595386572735493</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>0.847550609783323</v>
       </c>
       <c r="C240" t="n">
-        <v>0.01344903937697138</v>
+        <v>0.01341132624250455</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>0.8467126746272897</v>
       </c>
       <c r="C241" t="n">
-        <v>0.01684392590743483</v>
+        <v>0.01680621277296801</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>0.8409868274545526</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0110459294000182</v>
+        <v>0.01100821626555138</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>0.8428984692242146</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01442034168312686</v>
+        <v>0.01438262854866004</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>0.8452159370974316</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01377402375728148</v>
+        <v>0.01373631062281466</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>0.8469171543223674</v>
       </c>
       <c r="C245" t="n">
-        <v>0.01408709302496993</v>
+        <v>0.0140493798905031</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>0.8410257839298437</v>
       </c>
       <c r="C246" t="n">
-        <v>0.01238995205875841</v>
+        <v>0.01235223892429158</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>0.8428998200020749</v>
       </c>
       <c r="C247" t="n">
-        <v>0.01114290606750908</v>
+        <v>0.01110519293304225</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>0.844995837102928</v>
       </c>
       <c r="C248" t="n">
-        <v>0.01550627047100967</v>
+        <v>0.01546855733654284</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>0.8454628775782981</v>
       </c>
       <c r="C249" t="n">
-        <v>0.01430196324160994</v>
+        <v>0.01426425010714312</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>0.8317875597597506</v>
       </c>
       <c r="C250" t="n">
-        <v>0.001671699975899825</v>
+        <v>0.001633986841432997</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>0.8341131856082487</v>
       </c>
       <c r="C251" t="n">
-        <v>0.02019018929312975</v>
+        <v>0.02015247615866293</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>0.8273500063109617</v>
       </c>
       <c r="C252" t="n">
-        <v>0.009396944400598599</v>
+        <v>0.009359231266131772</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>0.8101740565661719</v>
       </c>
       <c r="C253" t="n">
-        <v>9.88757032795482e-05</v>
+        <v>6.116256881272011e-05</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>0.810982974995009</v>
       </c>
       <c r="C254" t="n">
-        <v>0.01189750568191415</v>
+        <v>0.01185979254744733</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>0.8144220211882135</v>
       </c>
       <c r="C255" t="n">
-        <v>0.01708740121314622</v>
+        <v>0.01704968807867939</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>0.8204052171607398</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0188952364344289</v>
+        <v>0.01885752329996207</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>0.8253087901170223</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01595392612717422</v>
+        <v>0.01591621299270739</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>0.8304959541906685</v>
       </c>
       <c r="C258" t="n">
-        <v>0.01586329578535125</v>
+        <v>0.01582558265088442</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>0.8338929938370938</v>
       </c>
       <c r="C259" t="n">
-        <v>0.01585684908172385</v>
+        <v>0.01581913594725702</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>0.8378612377887079</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01679867811391201</v>
+        <v>0.01676096497944518</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>0.839257557839501</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01393900097546691</v>
+        <v>0.01390128784100008</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>0.8426619757709168</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0133677548822491</v>
+        <v>0.01333004174778228</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>0.8446383160359952</v>
       </c>
       <c r="C263" t="n">
-        <v>0.01325164504332025</v>
+        <v>0.01321393190885342</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>0.8370714261324422</v>
       </c>
       <c r="C264" t="n">
-        <v>0.01284536122075761</v>
+        <v>0.01280764808629079</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>0.8386900420034521</v>
       </c>
       <c r="C265" t="n">
-        <v>0.01329036207547396</v>
+        <v>0.01325264894100713</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>0.8420310976610322</v>
       </c>
       <c r="C266" t="n">
-        <v>0.01015851048011998</v>
+        <v>0.01012079734565315</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>0.8436849726973334</v>
       </c>
       <c r="C267" t="n">
-        <v>0.01493359980932426</v>
+        <v>0.01489588667485744</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>0.8461191687611499</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01521711556741188</v>
+        <v>0.01517940243294505</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>0.8489550334875341</v>
       </c>
       <c r="C269" t="n">
-        <v>0.01320116462957901</v>
+        <v>0.01316345149511218</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>0.8508661975996258</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01496401291006124</v>
+        <v>0.01492629977559442</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>0.8520164257180773</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01911728985387245</v>
+        <v>0.01907957671940562</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>0.8542134192333044</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01305310437249695</v>
+        <v>0.01301539123803013</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>0.8516186825848276</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01124190723448228</v>
+        <v>0.01120419410001545</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>0.8506157853591727</v>
       </c>
       <c r="C274" t="n">
-        <v>0.0130160473437267</v>
+        <v>0.01297833420925987</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>0.8526640293407259</v>
       </c>
       <c r="C275" t="n">
-        <v>0.01429639786325285</v>
+        <v>0.01425868472878602</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>0.8540679371826404</v>
       </c>
       <c r="C276" t="n">
-        <v>0.01322995711322785</v>
+        <v>0.01319224397876103</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>0.8559762844987456</v>
       </c>
       <c r="C277" t="n">
-        <v>0.01214149923094683</v>
+        <v>0.01210378609648</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>0.8566772001195553</v>
       </c>
       <c r="C278" t="n">
-        <v>0.01145283141138581</v>
+        <v>0.01141511827691898</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>0.858022648148531</v>
       </c>
       <c r="C279" t="n">
-        <v>0.01855826312202268</v>
+        <v>0.01852054998755585</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>0.8582186305868974</v>
       </c>
       <c r="C280" t="n">
-        <v>0.01191620897415614</v>
+        <v>0.01187849583968932</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>0.85818279637215</v>
       </c>
       <c r="C281" t="n">
-        <v>0.009901710614351258</v>
+        <v>0.009863997479884432</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>0.8564293279462702</v>
       </c>
       <c r="C282" t="n">
-        <v>0.01254157014447111</v>
+        <v>0.01250385701000429</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>0.8569456056733541</v>
       </c>
       <c r="C283" t="n">
-        <v>0.009879684976438765</v>
+        <v>0.009841971841971938</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>0.8580886392176161</v>
       </c>
       <c r="C284" t="n">
-        <v>0.01249942877381763</v>
+        <v>0.01246171563935081</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>0.8584698161130958</v>
       </c>
       <c r="C285" t="n">
-        <v>0.01198126839997976</v>
+        <v>0.01194355526551294</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>0.8604383035471203</v>
       </c>
       <c r="C286" t="n">
-        <v>0.008266512647360674</v>
+        <v>0.008228799512893847</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>0.8613857905961266</v>
       </c>
       <c r="C287" t="n">
-        <v>0.01155331459109125</v>
+        <v>0.01151560145662442</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>0.8625341428616515</v>
       </c>
       <c r="C288" t="n">
-        <v>0.009032756192208478</v>
+        <v>0.008995043057741651</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>0.8640608675933301</v>
       </c>
       <c r="C289" t="n">
-        <v>0.01373246034644033</v>
+        <v>0.0136947472119735</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>0.8652247650921884</v>
       </c>
       <c r="C290" t="n">
-        <v>0.01326003416104022</v>
+        <v>0.0132223210265734</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>0.8640738362040056</v>
       </c>
       <c r="C291" t="n">
-        <v>0.009748778526236344</v>
+        <v>0.009711065391769517</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>0.8631835368156033</v>
       </c>
       <c r="C292" t="n">
-        <v>0.005141727869751572</v>
+        <v>0.005104014735284744</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>0.8631584932303992</v>
       </c>
       <c r="C293" t="n">
-        <v>0.01073241614698495</v>
+        <v>0.01069470301251812</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>0.8620892005339832</v>
       </c>
       <c r="C294" t="n">
-        <v>0.01347125655533298</v>
+        <v>0.01343354342086616</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>0.8635277350999591</v>
       </c>
       <c r="C295" t="n">
-        <v>0.01010995899083154</v>
+        <v>0.01007224585636471</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>0.8633537742172656</v>
       </c>
       <c r="C296" t="n">
-        <v>0.006934970069163214</v>
+        <v>0.006897256934696385</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>0.8645675849086454</v>
       </c>
       <c r="C297" t="n">
-        <v>0.01203508036508561</v>
+        <v>0.01199736723061878</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>0.8654475833249159</v>
       </c>
       <c r="C298" t="n">
-        <v>0.004898862467873756</v>
+        <v>0.004861149333406927</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>0.8607652861258644</v>
       </c>
       <c r="C299" t="n">
-        <v>0.01103368362966524</v>
+        <v>0.01099597049519841</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>0.8622119409234426</v>
       </c>
       <c r="C300" t="n">
-        <v>0.01478976193733083</v>
+        <v>0.014752048802864</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>0.8571110821277718</v>
       </c>
       <c r="C301" t="n">
-        <v>0.005349000390680998</v>
+        <v>0.005311287256214169</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>0.8530396426823149</v>
       </c>
       <c r="C302" t="n">
-        <v>0.004781241112836875</v>
+        <v>0.004743527978370046</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>0.855513038394651</v>
       </c>
       <c r="C303" t="n">
-        <v>0.003883793747491273</v>
+        <v>0.003846080613024445</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>0.857111439633648</v>
       </c>
       <c r="C304" t="n">
-        <v>0.012003705680074</v>
+        <v>0.01196599254560717</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>0.8585199894254276</v>
       </c>
       <c r="C305" t="n">
-        <v>0.006812743266914097</v>
+        <v>0.006775030132447269</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>0.855665363917487</v>
       </c>
       <c r="C306" t="n">
-        <v>0.008883492056211372</v>
+        <v>0.008845778921744546</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>0.8575238528852062</v>
       </c>
       <c r="C307" t="n">
-        <v>0.01081820406030726</v>
+        <v>0.01078049092584043</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>0.8595554773453875</v>
       </c>
       <c r="C308" t="n">
-        <v>0.007710931047386578</v>
+        <v>0.00767321791291975</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>0.8614020877200821</v>
       </c>
       <c r="C309" t="n">
-        <v>0.007497491832666914</v>
+        <v>0.007459778698200086</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>0.863143218318105</v>
       </c>
       <c r="C310" t="n">
-        <v>0.008886202700899333</v>
+        <v>0.008848489566432506</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>0.8647212666744166</v>
       </c>
       <c r="C311" t="n">
-        <v>0.008450310226583621</v>
+        <v>0.008412597092116794</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>0.8659687990285329</v>
       </c>
       <c r="C312" t="n">
-        <v>0.007147808031840819</v>
+        <v>0.007110094897373991</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>0.8667213852773726</v>
       </c>
       <c r="C313" t="n">
-        <v>0.01107148808878436</v>
+        <v>0.01103377495431754</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>0.8676834941422639</v>
       </c>
       <c r="C314" t="n">
-        <v>0.007298414927703576</v>
+        <v>0.007260701793236748</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>0.8679682796911229</v>
       </c>
       <c r="C315" t="n">
-        <v>0.007650956252148487</v>
+        <v>0.007613243117681658</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>0.868447531419034</v>
       </c>
       <c r="C316" t="n">
-        <v>0.005297177862622012</v>
+        <v>0.005259464728155184</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>0.8662795730987681</v>
       </c>
       <c r="C317" t="n">
-        <v>0.006011331778667496</v>
+        <v>0.005973618644200668</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>0.8670433103855616</v>
       </c>
       <c r="C318" t="n">
-        <v>0.004802083786923424</v>
+        <v>0.004764370652456595</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>0.8673209706202277</v>
       </c>
       <c r="C319" t="n">
-        <v>0.007353501640851604</v>
+        <v>0.007315788506384775</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>0.8681980439866849</v>
       </c>
       <c r="C320" t="n">
-        <v>0.006733264958687123</v>
+        <v>0.006695551824220295</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>0.86944271087929</v>
       </c>
       <c r="C321" t="n">
-        <v>0.004370822626064495</v>
+        <v>0.004333109491597667</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>0.8682839610491609</v>
       </c>
       <c r="C322" t="n">
-        <v>0.005253814374142856</v>
+        <v>0.005216101239676028</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>0.8683204792599563</v>
       </c>
       <c r="C323" t="n">
-        <v>0.008858373827432745</v>
+        <v>0.008820660692965918</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>0.8690827011251768</v>
       </c>
       <c r="C324" t="n">
-        <v>0.00810852251265457</v>
+        <v>0.008070809378187743</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>0.869463691601516</v>
       </c>
       <c r="C325" t="n">
-        <v>0.006655767208789821</v>
+        <v>0.006618054074322993</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>0.8713084850904105</v>
       </c>
       <c r="C326" t="n">
-        <v>0.00734169435701935</v>
+        <v>0.007303981222552522</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>0.8705009195379317</v>
       </c>
       <c r="C327" t="n">
-        <v>0.005457219455358457</v>
+        <v>0.005419506320891629</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>0.8711381350120226</v>
       </c>
       <c r="C328" t="n">
-        <v>0.004547002746170012</v>
+        <v>0.004509289611703183</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>0.8723345383835086</v>
       </c>
       <c r="C329" t="n">
-        <v>0.003879655403729295</v>
+        <v>0.003841942269262467</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>0.8729520243677651</v>
       </c>
       <c r="C330" t="n">
-        <v>0.005993153465482792</v>
+        <v>0.005955440331015964</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>0.8733086952517402</v>
       </c>
       <c r="C331" t="n">
-        <v>0.00954440405638185</v>
+        <v>0.009506690921915023</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>0.8738676075926077</v>
       </c>
       <c r="C332" t="n">
-        <v>0.004583162634388215</v>
+        <v>0.004545449499921386</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>0.8736190012541581</v>
       </c>
       <c r="C333" t="n">
-        <v>0.005872156657714686</v>
+        <v>0.005834443523247857</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>0.8745770935225532</v>
       </c>
       <c r="C334" t="n">
-        <v>0.008105005673330975</v>
+        <v>0.008067292538864148</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>0.8750819050962283</v>
       </c>
       <c r="C335" t="n">
-        <v>0.006379016227377292</v>
+        <v>0.006341303092910464</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>0.8746263794515856</v>
       </c>
       <c r="C336" t="n">
-        <v>0.004287172156934682</v>
+        <v>0.004249459022467854</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>0.8753298513558865</v>
       </c>
       <c r="C337" t="n">
-        <v>0.008606117642753775</v>
+        <v>0.008568404508286949</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>0.8752722273785382</v>
       </c>
       <c r="C338" t="n">
-        <v>0.004444738444850007</v>
+        <v>0.004407025310383179</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>0.875827095801509</v>
       </c>
       <c r="C339" t="n">
-        <v>0.004724722904889493</v>
+        <v>0.004687009770422665</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>0.8756080394657491</v>
       </c>
       <c r="C340" t="n">
-        <v>0.004153511113468701</v>
+        <v>0.004115797979001873</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>0.8763685093350385</v>
       </c>
       <c r="C341" t="n">
-        <v>0.00499384665746518</v>
+        <v>0.004956133522998352</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>0.8770284864078091</v>
       </c>
       <c r="C342" t="n">
-        <v>0.002436611684362477</v>
+        <v>0.002398898549895649</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>0.8769492009008517</v>
       </c>
       <c r="C343" t="n">
-        <v>0.00266092052254782</v>
+        <v>0.002623207388080992</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>0.8771599323994044</v>
       </c>
       <c r="C344" t="n">
-        <v>0.003389074531132439</v>
+        <v>0.00335136139666561</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>0.8781838715476735</v>
       </c>
       <c r="C345" t="n">
-        <v>0.004769165403822073</v>
+        <v>0.004731452269355244</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>0.8786010317601484</v>
       </c>
       <c r="C346" t="n">
-        <v>0.00204724533036577</v>
+        <v>0.002009532195898942</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>0.8789975690639044</v>
       </c>
       <c r="C347" t="n">
-        <v>0.003437340041444487</v>
+        <v>0.003399626906977659</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>0.8800163626354295</v>
       </c>
       <c r="C348" t="n">
-        <v>0.003548500650815585</v>
+        <v>0.003510787516348757</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>0.8791189060190079</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0007483248262754299</v>
+        <v>0.0007106116918086018</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>0.8791585968673654</v>
       </c>
       <c r="C350" t="n">
-        <v>0.002791030950536222</v>
+        <v>0.002753317816069394</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>0.8796123218361117</v>
       </c>
       <c r="C351" t="n">
-        <v>0.00194251306454398</v>
+        <v>0.001904799930077152</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>0.8806078260587321</v>
       </c>
       <c r="C352" t="n">
-        <v>0.00253548931069419</v>
+        <v>0.002497776176227362</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>0.8813732350427175</v>
       </c>
       <c r="C353" t="n">
-        <v>0.003459863513017808</v>
+        <v>0.00342215037855098</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>0.8827606571745515</v>
       </c>
       <c r="C354" t="n">
-        <v>0.002404130622601087</v>
+        <v>0.002366417488134259</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>0.8836893042534143</v>
       </c>
       <c r="C355" t="n">
-        <v>0.002300469736609135</v>
+        <v>0.002262756602142307</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>0.884152058087427</v>
       </c>
       <c r="C356" t="n">
-        <v>0.002501119856544912</v>
+        <v>0.002463406722078084</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>0.885402925246812</v>
       </c>
       <c r="C357" t="n">
-        <v>0.002394174545204203</v>
+        <v>0.002356461410737374</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>0.8868951398471582</v>
       </c>
       <c r="C358" t="n">
-        <v>0.002654560880631147</v>
+        <v>0.002616847746164319</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>0.8881173287653884</v>
       </c>
       <c r="C359" t="n">
-        <v>0.00108858445448496</v>
+        <v>0.001050871320018132</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>0.8892911665280064</v>
       </c>
       <c r="C360" t="n">
-        <v>0.003153596031918126</v>
+        <v>0.003115882897451298</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>0.8910665306964746</v>
       </c>
       <c r="C361" t="n">
-        <v>0.001785202958302777</v>
+        <v>0.001747489823835949</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>0.8931305408170286</v>
       </c>
       <c r="C362" t="n">
-        <v>0.001843336637922069</v>
+        <v>0.001805623503455241</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>0.8949829144496204</v>
       </c>
       <c r="C363" t="n">
-        <v>0.001929322249632862</v>
+        <v>0.001891609115166034</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>0.8956548499437216</v>
       </c>
       <c r="C364" t="n">
-        <v>0.001418796756845112</v>
+        <v>0.001381083622378284</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>0.896149955644293</v>
       </c>
       <c r="C365" t="n">
-        <v>0.001197111829499994</v>
+        <v>0.001159398695033166</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>0.8976033385919656</v>
       </c>
       <c r="C366" t="n">
-        <v>0.001983123754259219</v>
+        <v>0.00194541061979239</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>0.8978729813585564</v>
       </c>
       <c r="C367" t="n">
-        <v>0.001472789792570743</v>
+        <v>0.001435076658103915</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>0.8974289940363569</v>
       </c>
       <c r="C368" t="n">
-        <v>0.0005405571052175301</v>
+        <v>0.000502843970750702</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>0.8975581055454522</v>
       </c>
       <c r="C369" t="n">
-        <v>0.001207559706824927</v>
+        <v>0.001169846572358099</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>0.8985310320566695</v>
       </c>
       <c r="C370" t="n">
-        <v>0.001530528120653738</v>
+        <v>0.00149281498618691</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>0.8988796149138902</v>
       </c>
       <c r="C371" t="n">
-        <v>0.001160347843536479</v>
+        <v>0.001122634709069651</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>0.8990133461103903</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0009275791221185616</v>
+        <v>0.0008898659876517335</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>0.8997469250359842</v>
       </c>
       <c r="C373" t="n">
-        <v>0.0012155207834456</v>
+        <v>0.001177807648978772</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>0.9005221264472894</v>
       </c>
       <c r="C374" t="n">
-        <v>0.001407530688822225</v>
+        <v>0.001369817554355397</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>0.9011210948640298</v>
       </c>
       <c r="C375" t="n">
-        <v>0.001118413953254166</v>
+        <v>0.001080700818787338</v>
       </c>
     </row>
     <row r="376">
@@ -4572,7 +4572,7 @@
         <v>0.901572566589222</v>
       </c>
       <c r="C376" t="n">
-        <v>0.001343722558614232</v>
+        <v>0.001306009424147404</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>0.9022611253153066</v>
       </c>
       <c r="C377" t="n">
-        <v>0.001277418678344319</v>
+        <v>0.001239705543877491</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>0.9031501187711762</v>
       </c>
       <c r="C378" t="n">
-        <v>0.001533322738113135</v>
+        <v>0.001495609603646307</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>0.9036792985374994</v>
       </c>
       <c r="C379" t="n">
-        <v>0.001305415767131775</v>
+        <v>0.001267702632664947</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>0.9038015018957249</v>
       </c>
       <c r="C380" t="n">
-        <v>0.001341130873728497</v>
+        <v>0.001303417739261669</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>0.903832058794795</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0011896981950009</v>
+        <v>0.001151985060534072</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>0.9039662651681499</v>
       </c>
       <c r="C382" t="n">
-        <v>0.001320758273282998</v>
+        <v>0.00128304513881617</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>0.9038278097686789</v>
       </c>
       <c r="C383" t="n">
-        <v>0.001114113619390138</v>
+        <v>0.00107640048492331</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>0.903770672178287</v>
       </c>
       <c r="C384" t="n">
-        <v>0.001109191567648662</v>
+        <v>0.001071478433181834</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>0.9044032595752861</v>
       </c>
       <c r="C385" t="n">
-        <v>0.00174262106649213</v>
+        <v>0.001704907932025302</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>0.9045859506532108</v>
       </c>
       <c r="C386" t="n">
-        <v>0.001365384438178628</v>
+        <v>0.0013276713037118</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>0.9053885914729116</v>
       </c>
       <c r="C387" t="n">
-        <v>0.001979961847949785</v>
+        <v>0.001942248713482957</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>0.9052478788419348</v>
       </c>
       <c r="C388" t="n">
-        <v>0.001115014238953293</v>
+        <v>0.001077301104486465</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>0.9055185607976973</v>
       </c>
       <c r="C389" t="n">
-        <v>0.001338825273013028</v>
+        <v>0.0013011121385462</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>0.9053168147648895</v>
       </c>
       <c r="C390" t="n">
-        <v>0.001308717763075982</v>
+        <v>0.001271004628609154</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>0.9063580412498049</v>
       </c>
       <c r="C391" t="n">
-        <v>0.001709199215712752</v>
+        <v>0.001671486081245924</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>0.9067940513882321</v>
       </c>
       <c r="C392" t="n">
-        <v>0.00156036588575989</v>
+        <v>0.001522652751293062</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>0.9078655605020409</v>
       </c>
       <c r="C393" t="n">
-        <v>0.001875564102169647</v>
+        <v>0.001837850967702819</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>0.9083178836306623</v>
       </c>
       <c r="C394" t="n">
-        <v>0.001643397466433833</v>
+        <v>0.001605684331967005</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>0.9084240580316467</v>
       </c>
       <c r="C395" t="n">
-        <v>0.001494028643672444</v>
+        <v>0.001456315509205616</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>0.908493362193755</v>
       </c>
       <c r="C396" t="n">
-        <v>0.001331426116371372</v>
+        <v>0.001293712981904544</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>0.9088377205188033</v>
       </c>
       <c r="C397" t="n">
-        <v>0.001670813129085514</v>
+        <v>0.001633099994618686</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>0.9085115776682113</v>
       </c>
       <c r="C398" t="n">
-        <v>0.001133981399324407</v>
+        <v>0.001096268264857579</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>0.9079343363840807</v>
       </c>
       <c r="C399" t="n">
-        <v>0.001766073597549409</v>
+        <v>0.00172836046308258</v>
       </c>
     </row>
   </sheetData>

--- a/code/notebooks/phase1results_new/itemsVsacc.xlsx
+++ b/code/notebooks/phase1results_new/itemsVsacc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C399"/>
+  <dimension ref="A1:C688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,4380 +452,7559 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>14.2</v>
+        <v>1.8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5725568015656384</v>
+        <v>0.5945476866503959</v>
       </c>
       <c r="C2" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14.5</v>
+        <v>2.1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5671583881210089</v>
+        <v>0.6088935896246617</v>
       </c>
       <c r="C3" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15.2</v>
+        <v>2.3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5733202828553585</v>
+        <v>0.6132851925759676</v>
       </c>
       <c r="C4" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.001421917865319242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15.4</v>
+        <v>2.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5751495708917781</v>
+        <v>0.6152226644662495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002438462228080673</v>
+        <v>0.0003793940106400698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>15.5</v>
+        <v>2.6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.575888943013941</v>
+        <v>0.6162108961382532</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001168594767506397</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>15.6</v>
+        <v>2.8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5764026906966634</v>
+        <v>0.6167522475375249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001659653141508882</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15.7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5759854837189562</v>
+        <v>0.6183925559226398</v>
       </c>
       <c r="C8" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.002705145532601376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15.8</v>
+        <v>3.3</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5749098978107722</v>
+        <v>0.6193816978021415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001920582721340567</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15.9</v>
+        <v>3.6</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5741884510966418</v>
+        <v>0.6199644418620532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00219410955660957</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16.2</v>
+        <v>3.8</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5737133516920583</v>
+        <v>0.6252467147410038</v>
       </c>
       <c r="C11" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16.3</v>
+        <v>3.9</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5735433984048887</v>
+        <v>0.6283955625112246</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009449611593204822</v>
+        <v>0.001233879806248685</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16.4</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5752985493410152</v>
+        <v>0.6302775439102148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002505923507308248</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16.5</v>
+        <v>4.1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5760414333704824</v>
+        <v>0.6339771761395239</v>
       </c>
       <c r="C14" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.0007095254600540683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16.6</v>
+        <v>4.2</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5786758599551591</v>
+        <v>0.6361938605868952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004015552512442721</v>
+        <v>0.0007368443466387213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>16.9</v>
+        <v>4.4</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5788496472290224</v>
+        <v>0.6375227589971587</v>
       </c>
       <c r="C16" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.001000228806130999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5790182477745535</v>
+        <v>0.6383196980405013</v>
       </c>
       <c r="C17" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17.2</v>
+        <v>4.6</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5778266643165416</v>
+        <v>0.6387977175539791</v>
       </c>
       <c r="C18" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.001584827004877483</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17.4</v>
+        <v>4.7</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5793419601439361</v>
+        <v>0.6390844774726554</v>
       </c>
       <c r="C19" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.0009808715126026651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17.6</v>
+        <v>4.8</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5835253327810535</v>
+        <v>0.6392565147837974</v>
       </c>
       <c r="C20" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.0005287376628625769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18.2</v>
+        <v>4.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5869216084463671</v>
+        <v>0.6393597304609502</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003265721391933386</v>
+        <v>0.002226546690175429</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18.3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5889293782710885</v>
+        <v>0.6394216574520025</v>
       </c>
       <c r="C22" t="n">
-        <v>8.543681918187461e-05</v>
+        <v>0.002655684844255128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>18.5</v>
+        <v>5.1</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5901640238711222</v>
+        <v>0.6394588127771893</v>
       </c>
       <c r="C23" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18.6</v>
+        <v>5.2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5923236163848483</v>
+        <v>0.6394811056593103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0008480987254374843</v>
+        <v>0.001880848601975332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>18.8</v>
+        <v>5.3</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5903238899537229</v>
+        <v>0.639494481275908</v>
       </c>
       <c r="C25" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.003420888863142366</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>18.9</v>
+        <v>5.4</v>
       </c>
       <c r="B26" t="n">
-        <v>0.593779392462944</v>
+        <v>0.6395025066053041</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002071031717226196</v>
+        <v>0.003954680916550286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5960295795622798</v>
+        <v>0.6395073217883392</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0008395830695035226</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>19.1</v>
+        <v>5.6</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5991735387413265</v>
+        <v>0.6395102108929034</v>
       </c>
       <c r="C28" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.002802198223971256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19.2</v>
+        <v>5.7</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6010129071853439</v>
+        <v>0.6395119443537497</v>
       </c>
       <c r="C29" t="n">
-        <v>7.979776067119641e-05</v>
+        <v>0.001115402172091897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>19.3</v>
+        <v>5.8</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6004515779127416</v>
+        <v>0.639512984429576</v>
       </c>
       <c r="C30" t="n">
-        <v>8.294658800239915e-05</v>
+        <v>0.0008980146798585084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>19.4</v>
+        <v>5.9</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6037910431321378</v>
+        <v>0.6395136084748266</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007711291196805138</v>
+        <v>0.004214104026977018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>19.6</v>
+        <v>6</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6036251764825969</v>
+        <v>0.6395139829018887</v>
       </c>
       <c r="C32" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.002030097521877179</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19.7</v>
+        <v>6.1</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6025761268206018</v>
+        <v>0.639514207558094</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004964776426606591</v>
+        <v>0.003198210259983564</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>19.8</v>
+        <v>6.2</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6031201266760797</v>
+        <v>0.6475414803197407</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003027721987229081</v>
+        <v>0.004029610709169849</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19.9</v>
+        <v>6.3</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6054396633859309</v>
+        <v>0.6523578437314052</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00425666934731769</v>
+        <v>0.001542127538520372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>20</v>
+        <v>6.4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.610688951891545</v>
+        <v>0.6552476616900873</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004624389594832795</v>
+        <v>0.004112249085989114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>20.1</v>
+        <v>6.6</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6079180358929965</v>
+        <v>0.6569815524335029</v>
       </c>
       <c r="C37" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.0006118831646241026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>20.2</v>
+        <v>6.7</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6075005939871412</v>
+        <v>0.6580218868681063</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001490111849978189</v>
+        <v>0.0040067013021987</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>20.3</v>
+        <v>6.8</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6081733151194114</v>
+        <v>0.6586460875247477</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003561882717253359</v>
+        <v>0.0001194933196234419</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>20.4</v>
+        <v>6.9</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6060266848370223</v>
+        <v>0.6590206079172493</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0003235434678935544</v>
+        <v>0.002388362374984175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>20.5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6065414683301562</v>
+        <v>0.6592453201522162</v>
       </c>
       <c r="C41" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.002177365289751133</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>20.6</v>
+        <v>7.1</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6052177321573919</v>
+        <v>0.6593801474930042</v>
       </c>
       <c r="C42" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>20.8</v>
+        <v>7.2</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6095189594394269</v>
+        <v>0.6594610438974078</v>
       </c>
       <c r="C43" t="n">
-        <v>0.008241539929301682</v>
+        <v>0.003158289504999699</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>20.9</v>
+        <v>7.3</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6126894440883216</v>
+        <v>0.6595095817400249</v>
       </c>
       <c r="C44" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.001900491696345687</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>21</v>
+        <v>7.4</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6144710806260169</v>
+        <v>0.6595387044455863</v>
       </c>
       <c r="C45" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>21.1</v>
+        <v>7.5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6170299320302021</v>
+        <v>0.6595561780689199</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006624955726243266</v>
+        <v>0.001858896060434017</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>21.2</v>
+        <v>7.6</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6286238496120603</v>
+        <v>0.6595666622429189</v>
       </c>
       <c r="C47" t="n">
-        <v>0.02170864086202354</v>
+        <v>0.001934097637137938</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21.3</v>
+        <v>7.7</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6311620879940592</v>
+        <v>0.6595729527473179</v>
       </c>
       <c r="C48" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.004484093332212371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>21.4</v>
+        <v>7.8</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6349849750120137</v>
+        <v>0.6595767270499572</v>
       </c>
       <c r="C49" t="n">
-        <v>0.005284968301364323</v>
+        <v>0.0008379008732992957</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>21.5</v>
+        <v>7.9</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6359525520316356</v>
+        <v>0.6595789916315407</v>
       </c>
       <c r="C50" t="n">
-        <v>0.007692310288794558</v>
+        <v>0.0007888996761012661</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>21.6</v>
+        <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6382691542346073</v>
+        <v>0.6595803503804907</v>
       </c>
       <c r="C51" t="n">
-        <v>0.007262566528757074</v>
+        <v>0.003207104327253911</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>21.8</v>
+        <v>8.1</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6443453053956684</v>
+        <v>0.6595811656298608</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001611676986648628</v>
+        <v>0.001787520296043623</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6457823175302599</v>
+        <v>0.6595816547794828</v>
       </c>
       <c r="C53" t="n">
-        <v>0.002598056378117359</v>
+        <v>0.001752035406001016</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>22.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6555692835261704</v>
+        <v>0.6595819482692561</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02164068808788446</v>
+        <v>0.002317811002870804</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>22.2</v>
+        <v>8.4</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6598068808443922</v>
+        <v>0.65958212436312</v>
       </c>
       <c r="C55" t="n">
-        <v>0.005461760445821669</v>
+        <v>0.001924749441130838</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>22.3</v>
+        <v>8.5</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6680324893150914</v>
+        <v>0.6604215505682146</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01278259127673526</v>
+        <v>0.003065753592256297</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>22.4</v>
+        <v>8.6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6674823108035618</v>
+        <v>0.6609252062912711</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00460016252538462</v>
+        <v>0.001372714760517429</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>22.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6625795415786733</v>
+        <v>0.6612273997251047</v>
       </c>
       <c r="C58" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.00195523322154767</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>22.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6601343182499181</v>
+        <v>0.6614087157854048</v>
       </c>
       <c r="C59" t="n">
-        <v>0.005499175554829128</v>
+        <v>0.001492415412488938</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>22.7</v>
+        <v>8.9</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6647395717268332</v>
+        <v>0.6621943635443976</v>
       </c>
       <c r="C60" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.004051780459775834</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>22.8</v>
+        <v>9</v>
       </c>
       <c r="B61" t="n">
-        <v>0.661786463295375</v>
+        <v>0.6626657521997933</v>
       </c>
       <c r="C61" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.003087681623003316</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>22.9</v>
+        <v>9.1</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6569380498182285</v>
+        <v>0.6629485853930307</v>
       </c>
       <c r="C62" t="n">
-        <v>0.003342240507784707</v>
+        <v>0.001619368125426845</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6597207416777109</v>
+        <v>0.6631182853089731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.008253037202142984</v>
+        <v>0.003181685325255212</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>23.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6603179646711441</v>
+        <v>0.6632201052585387</v>
       </c>
       <c r="C64" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.001714864925614952</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>23.2</v>
+        <v>9.4</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6696511823700161</v>
+        <v>0.6656673744957684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0116464980998412</v>
+        <v>0.003070252851180344</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>23.3</v>
+        <v>9.5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.671944104312823</v>
+        <v>0.6671357360381063</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01477688778686207</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>23.4</v>
+        <v>9.6</v>
       </c>
       <c r="B67" t="n">
-        <v>0.676137204532379</v>
+        <v>0.6680167529635089</v>
       </c>
       <c r="C67" t="n">
-        <v>0.009096215283948083</v>
+        <v>0.002657605654158678</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>23.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6791700549617883</v>
+        <v>0.6707199884167917</v>
       </c>
       <c r="C68" t="n">
-        <v>0.006978111849902474</v>
+        <v>0.002735114676039261</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>23.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6701945032010785</v>
+        <v>0.6723419296887615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0006224786859499484</v>
+        <v>0.001153812513798388</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>23.7</v>
+        <v>9.9</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6725458088521048</v>
+        <v>0.6783885265647983</v>
       </c>
       <c r="C70" t="n">
-        <v>0.005394684262102155</v>
+        <v>0.004609216797356304</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>23.8</v>
+        <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6697662055396412</v>
+        <v>0.6820164846904204</v>
       </c>
       <c r="C71" t="n">
-        <v>0.003741806246710006</v>
+        <v>0.001725631716321085</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>23.9</v>
+        <v>10.1</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6657649597028228</v>
+        <v>0.6850454622760612</v>
       </c>
       <c r="C72" t="n">
-        <v>0.001374299671365281</v>
+        <v>0.004983114256189034</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>24</v>
+        <v>10.2</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6580320459197317</v>
+        <v>0.6868628488274459</v>
       </c>
       <c r="C73" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.004612439079574682</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>24.1</v>
+        <v>10.3</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6709265414391824</v>
+        <v>0.6879532807582766</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01865934064063289</v>
+        <v>0.002451930964670681</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>24.2</v>
+        <v>10.4</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6736455088136929</v>
+        <v>0.688607539916775</v>
       </c>
       <c r="C75" t="n">
-        <v>0.005409143873962841</v>
+        <v>0.003534007123545039</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>24.3</v>
+        <v>10.5</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6763471705005685</v>
+        <v>0.6890000954118741</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01721979694316793</v>
+        <v>0.004714204576603584</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>24.4</v>
+        <v>10.6</v>
       </c>
       <c r="B77" t="n">
-        <v>0.672871356932938</v>
+        <v>0.6892356287089335</v>
       </c>
       <c r="C77" t="n">
-        <v>0.009210822854923684</v>
+        <v>0.004603772436665248</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>24.5</v>
+        <v>10.7</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6888867078719892</v>
+        <v>0.6893769486871691</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01891371792600732</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>24.6</v>
+        <v>10.8</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6908711924734772</v>
+        <v>0.7443675324426382</v>
       </c>
       <c r="C79" t="n">
-        <v>0.007969454472038741</v>
+        <v>0.01461334551318932</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>24.7</v>
+        <v>10.9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6968190575865238</v>
+        <v>0.7773618826959197</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01412296143576067</v>
+        <v>0.005007404181704982</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>24.8</v>
+        <v>11</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7038202486438201</v>
+        <v>0.7971584928478885</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007844688828102341</v>
+        <v>0.002074914864262415</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>24.9</v>
+        <v>11.1</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7097445617240246</v>
+        <v>0.8090364589390698</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0207361461926589</v>
+        <v>0.004208313741866463</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>25</v>
+        <v>11.2</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7101456025517793</v>
+        <v>0.8161632385937785</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01507656014098745</v>
+        <v>0.00291517377253964</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>25.1</v>
+        <v>11.3</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7136089218203316</v>
+        <v>0.8204393063866039</v>
       </c>
       <c r="C84" t="n">
-        <v>0.007203663436190113</v>
+        <v>0.002988259608583</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>25.2</v>
+        <v>11.4</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7173446694678697</v>
+        <v>0.823004947062299</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01277442608244007</v>
+        <v>0.003989000520197856</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>25.3</v>
+        <v>11.5</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7088096328777657</v>
+        <v>0.824544331467716</v>
       </c>
       <c r="C86" t="n">
-        <v>0.005385721620465173</v>
+        <v>0.007206535443215215</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>25.4</v>
+        <v>11.6</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7170538658255861</v>
+        <v>0.8254679621109662</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01743130643036967</v>
+        <v>0.006103302689007392</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>25.5</v>
+        <v>11.7</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7050793587798363</v>
+        <v>0.8260221404969165</v>
       </c>
       <c r="C88" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.006223497055093847</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>25.6</v>
+        <v>11.8</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7080310237035727</v>
+        <v>0.8263546475284865</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01358923051239327</v>
+        <v>0.002228068197844776</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>25.8</v>
+        <v>11.9</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7117127148469075</v>
+        <v>0.8265541517474285</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01938679106569883</v>
+        <v>0.002393530153597353</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>25.9</v>
+        <v>12</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7204225467865011</v>
+        <v>0.8266738542787938</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01745722268052978</v>
+        <v>0.005682821378752143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>26</v>
+        <v>12.1</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7246230592824886</v>
+        <v>0.826745675797613</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0187297398701618</v>
+        <v>0.005681663298080453</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>26.1</v>
+        <v>12.2</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7364040724070113</v>
+        <v>0.8267887687089046</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01613252275114668</v>
+        <v>0.007514941100487715</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>26.2</v>
+        <v>12.3</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7404174969469043</v>
+        <v>0.8268146244556795</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01975829879252239</v>
+        <v>0.004711730361415848</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>26.3</v>
+        <v>12.4</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7497297450775849</v>
+        <v>0.8268301379037445</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01879560434492132</v>
+        <v>0.006997200471217909</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>26.4</v>
+        <v>12.5</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7558368530253251</v>
+        <v>0.8268394459725834</v>
       </c>
       <c r="C96" t="n">
-        <v>0.008526406015656636</v>
+        <v>0.00518799454377858</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>26.5</v>
+        <v>12.6</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7660239771004391</v>
+        <v>0.8268450308138868</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02801219814906506</v>
+        <v>0.007251803157210421</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>26.6</v>
+        <v>12.7</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7647397389797459</v>
+        <v>0.8526640700054107</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01016271516996685</v>
+        <v>0.01733538663870747</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>26.7</v>
+        <v>12.8</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7651826219306963</v>
+        <v>0.868155493520325</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008695905283650872</v>
+        <v>0.004873446253931754</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>26.8</v>
+        <v>12.9</v>
       </c>
       <c r="B100" t="n">
-        <v>0.770430368836245</v>
+        <v>0.8774503476292735</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01541814831544554</v>
+        <v>0.00850998140929201</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>26.9</v>
+        <v>13</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7691200000277214</v>
+        <v>0.8830272600946427</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0232016709718439</v>
+        <v>0.007690360413323109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>27</v>
+        <v>13.1</v>
       </c>
       <c r="B102" t="n">
-        <v>0.775034231447028</v>
+        <v>0.8863734075738643</v>
       </c>
       <c r="C102" t="n">
-        <v>0.008130994588792389</v>
+        <v>0.01693022428723217</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>27.1</v>
+        <v>13.2</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7801122283800348</v>
+        <v>0.888381096061397</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01914153948632132</v>
+        <v>0.0003513707246516269</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>27.2</v>
+        <v>13.3</v>
       </c>
       <c r="B104" t="n">
-        <v>0.785465704603942</v>
+        <v>0.8895857091539168</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01186154533607669</v>
+        <v>0.003625383472162678</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>27.3</v>
+        <v>13.4</v>
       </c>
       <c r="B105" t="n">
-        <v>0.784420642421139</v>
+        <v>0.8903084770094286</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01040557837436779</v>
+        <v>0.00819004670798032</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>27.4</v>
+        <v>13.5</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7899807547948062</v>
+        <v>0.8907421377227358</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0286137889285361</v>
+        <v>0.01829035738125109</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>27.5</v>
+        <v>13.7</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7894002943751297</v>
+        <v>0.8910023341507202</v>
       </c>
       <c r="C107" t="n">
-        <v>0.01455000060437542</v>
+        <v>0.01051959116061961</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>27.6</v>
+        <v>13.8</v>
       </c>
       <c r="B108" t="n">
-        <v>0.7904932500289723</v>
+        <v>0.8911584520075108</v>
       </c>
       <c r="C108" t="n">
-        <v>0.01628436212757352</v>
+        <v>0.01004320447783319</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>27.7</v>
+        <v>13.9</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7968135568932495</v>
+        <v>0.891252122721585</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02119514569341137</v>
+        <v>0.006356072804886679</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>27.8</v>
+        <v>14</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8012551292912931</v>
+        <v>0.8913083251500296</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02023384163863351</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>27.9</v>
+        <v>14.1</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8051711845986539</v>
+        <v>0.8913420466070963</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0186623106074711</v>
+        <v>0.008400092427489295</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>28</v>
+        <v>14.2</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8076047335275425</v>
+        <v>0.8913622794813363</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02078583116247718</v>
+        <v>0.01152840408998338</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>28.1</v>
+        <v>14.3</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7992459317612498</v>
+        <v>0.8913744192058803</v>
       </c>
       <c r="C113" t="n">
-        <v>0.008153945775762426</v>
+        <v>0.01249986646928265</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>28.2</v>
+        <v>14.4</v>
       </c>
       <c r="B114" t="n">
-        <v>0.804823654129908</v>
+        <v>0.8913817030406068</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02023723208626264</v>
+        <v>0.01156539379943262</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>28.3</v>
+        <v>14.5</v>
       </c>
       <c r="B115" t="n">
-        <v>0.807193460451295</v>
+        <v>0.8913860733414427</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01978525777547635</v>
+        <v>0.01489482489212449</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>28.4</v>
+        <v>14.6</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8102308673343551</v>
+        <v>0.8913886955219442</v>
       </c>
       <c r="C116" t="n">
-        <v>0.002601613521574227</v>
+        <v>0.006176803441747456</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>28.5</v>
+        <v>14.7</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8119497007302391</v>
+        <v>0.8913902688302451</v>
       </c>
       <c r="C117" t="n">
-        <v>0.02125177622976097</v>
+        <v>0.01045851793305963</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>28.6</v>
+        <v>14.8</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8123065792245939</v>
+        <v>0.8913912128152256</v>
       </c>
       <c r="C118" t="n">
-        <v>0.02192082181708442</v>
+        <v>0.005603526489567777</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>28.7</v>
+        <v>14.9</v>
       </c>
       <c r="B119" t="n">
-        <v>0.813204275462639</v>
+        <v>0.8913917792062139</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01158481931177481</v>
+        <v>0.01299237105982856</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>28.8</v>
+        <v>15</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8045053811951083</v>
+        <v>0.891392119040807</v>
       </c>
       <c r="C120" t="n">
-        <v>0.008625171267510966</v>
+        <v>0.007018504922062132</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>28.9</v>
+        <v>15.1</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8087532522432497</v>
+        <v>0.8913923229415628</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01768294885247542</v>
+        <v>0.01114207799968492</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>29.1</v>
+        <v>15.2</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8000594821744693</v>
+        <v>0.8913924452820163</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01063992220864567</v>
+        <v>0.01196408605316523</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>29.2</v>
+        <v>15.3</v>
       </c>
       <c r="B123" t="n">
-        <v>0.7907591390204272</v>
+        <v>0.8913925186862883</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009959071612874021</v>
+        <v>0.01969377476669278</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>29.3</v>
+        <v>15.4</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7946373621144878</v>
+        <v>0.8913925627288517</v>
       </c>
       <c r="C124" t="n">
-        <v>0.02330323382808829</v>
+        <v>0.01181849991058715</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>29.4</v>
+        <v>15.5</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7970386850997644</v>
+        <v>0.8913925891543897</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02208998239533516</v>
+        <v>0.01242052460203785</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>29.5</v>
+        <v>15.6</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8018317183301447</v>
+        <v>0.8913926050097124</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02492226723985549</v>
+        <v>0.01458404120635801</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>29.6</v>
+        <v>15.7</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7950733263967589</v>
+        <v>0.8913926145229061</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01938070584218904</v>
+        <v>0.02047608215079552</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>29.7</v>
+        <v>15.8</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7959481415507441</v>
+        <v>0.8913926202308221</v>
       </c>
       <c r="C128" t="n">
-        <v>0.02504881204348545</v>
+        <v>0.01375693012957495</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>29.8</v>
+        <v>15.9</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8015179253099236</v>
+        <v>0.8933149134190335</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02113795350679558</v>
+        <v>0.02131951843049369</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>29.9</v>
+        <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8025473622121591</v>
+        <v>0.8944682893319603</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01926349825386063</v>
+        <v>0.01032712321472204</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>30</v>
+        <v>16.1</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8035450869149513</v>
+        <v>0.8951603148797165</v>
       </c>
       <c r="C131" t="n">
-        <v>0.02266020290980208</v>
+        <v>0.01677351522309802</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>30.1</v>
+        <v>16.2</v>
       </c>
       <c r="B132" t="n">
-        <v>0.80796395275341</v>
+        <v>0.8955755302083701</v>
       </c>
       <c r="C132" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.01383258254561028</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>30.2</v>
+        <v>16.3</v>
       </c>
       <c r="B133" t="n">
-        <v>0.802087588431972</v>
+        <v>0.8977352766571091</v>
       </c>
       <c r="C133" t="n">
-        <v>0.008748131935782376</v>
+        <v>0.01509437266420912</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>30.3</v>
+        <v>16.4</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8029761007033764</v>
+        <v>0.8990311245263527</v>
       </c>
       <c r="C134" t="n">
-        <v>0.01780291964483335</v>
+        <v>0.01761098447869507</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>30.4</v>
+        <v>16.5</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7991657731919133</v>
+        <v>0.8998086332478987</v>
       </c>
       <c r="C135" t="n">
-        <v>0.006116773153468479</v>
+        <v>0.009543149790069816</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>30.5</v>
+        <v>16.6</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7837257960026989</v>
+        <v>0.9002751384808263</v>
       </c>
       <c r="C136" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.01592913864398315</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>30.7</v>
+        <v>16.7</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7877750096092421</v>
+        <v>0.9005550416205828</v>
       </c>
       <c r="C137" t="n">
-        <v>0.02727010022198574</v>
+        <v>0.02295402911965716</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>30.8</v>
+        <v>16.8</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7805870849135229</v>
+        <v>0.9007229835044366</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01048339393470996</v>
+        <v>0.02079749918555294</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>30.9</v>
+        <v>16.9</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7794903612733836</v>
+        <v>0.9008237486347489</v>
       </c>
       <c r="C139" t="n">
-        <v>0.01612259724542817</v>
+        <v>0.01407049175810415</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7740330671040497</v>
+        <v>0.9008842077129365</v>
       </c>
       <c r="C140" t="n">
-        <v>0.009168672790262698</v>
+        <v>0.01554325232267513</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>31.1</v>
+        <v>17.1</v>
       </c>
       <c r="B141" t="n">
-        <v>0.7695620763210108</v>
+        <v>0.9009204831598492</v>
       </c>
       <c r="C141" t="n">
-        <v>0.01361702035975624</v>
+        <v>0.01778455481548826</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>31.2</v>
+        <v>17.2</v>
       </c>
       <c r="B142" t="n">
-        <v>0.768243398759808</v>
+        <v>0.9009422484279965</v>
       </c>
       <c r="C142" t="n">
-        <v>0.01616205930133638</v>
+        <v>0.02216770611336847</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>31.3</v>
+        <v>17.3</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7684648817179566</v>
+        <v>0.9009553075888849</v>
       </c>
       <c r="C143" t="n">
-        <v>0.01052443887854175</v>
+        <v>0.01735868112840032</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>31.4</v>
+        <v>17.4</v>
       </c>
       <c r="B144" t="n">
-        <v>0.7686474622823125</v>
+        <v>0.9009631430854181</v>
       </c>
       <c r="C144" t="n">
-        <v>0.01803016878373499</v>
+        <v>0.01032798810941787</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>31.5</v>
+        <v>17.5</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7676345100902382</v>
+        <v>0.900967844383338</v>
       </c>
       <c r="C145" t="n">
-        <v>0.01156279002186471</v>
+        <v>0.01957302056206866</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>31.6</v>
+        <v>17.6</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7708269570087863</v>
+        <v>0.9009706651620899</v>
       </c>
       <c r="C146" t="n">
-        <v>0.01837604592592049</v>
+        <v>0.02141834091998311</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>31.7</v>
+        <v>17.7</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7777989652494208</v>
+        <v>0.900972357629341</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01675789242207587</v>
+        <v>0.01905289049204272</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>31.8</v>
+        <v>17.8</v>
       </c>
       <c r="B148" t="n">
-        <v>0.7765415871736975</v>
+        <v>0.9013314897746374</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01432351192031572</v>
+        <v>0.02124123361319311</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>31.9</v>
+        <v>17.9</v>
       </c>
       <c r="B149" t="n">
-        <v>0.7788182329411332</v>
+        <v>0.9015469690618152</v>
       </c>
       <c r="C149" t="n">
-        <v>0.01355730236500133</v>
+        <v>0.0169510015734293</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7820363491704784</v>
+        <v>0.9020496101162606</v>
       </c>
       <c r="C150" t="n">
-        <v>0.01580203604796377</v>
+        <v>0.01968143932008932</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>32.1</v>
+        <v>18.1</v>
       </c>
       <c r="B151" t="n">
-        <v>0.7842753234362693</v>
+        <v>0.9023511947489279</v>
       </c>
       <c r="C151" t="n">
-        <v>0.01680506708709243</v>
+        <v>0.0275227356446211</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>32.2</v>
+        <v>18.2</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7736205078198111</v>
+        <v>0.9025321455285282</v>
       </c>
       <c r="C152" t="n">
-        <v>0.00535579408360261</v>
+        <v>0.02068266833346833</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>32.3</v>
+        <v>18.3</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7798489414138603</v>
+        <v>0.9027695120751745</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0142151936683615</v>
+        <v>0.0211019696593615</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>32.4</v>
+        <v>18.4</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7764683723142056</v>
+        <v>0.9029119320031623</v>
       </c>
       <c r="C154" t="n">
-        <v>0.02018944987863453</v>
+        <v>0.01422980573188713</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>32.5</v>
+        <v>18.5</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7817365953293377</v>
+        <v>0.902997383959955</v>
       </c>
       <c r="C155" t="n">
-        <v>0.02261739886023945</v>
+        <v>0.022565128692003</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>32.6</v>
+        <v>18.6</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7852175598382065</v>
+        <v>0.9030486551340307</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01706776590542933</v>
+        <v>0.02402101859307129</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>32.7</v>
+        <v>18.7</v>
       </c>
       <c r="B157" t="n">
-        <v>0.7896183597384906</v>
+        <v>0.9030794178384761</v>
       </c>
       <c r="C157" t="n">
-        <v>0.01607389637089686</v>
+        <v>0.02318506251082936</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>32.8</v>
+        <v>18.8</v>
       </c>
       <c r="B158" t="n">
-        <v>0.7924287289002215</v>
+        <v>0.9032624075738276</v>
       </c>
       <c r="C158" t="n">
-        <v>0.01395795547454393</v>
+        <v>0.02441127972200533</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>32.9</v>
+        <v>18.9</v>
       </c>
       <c r="B159" t="n">
-        <v>0.7951368793084926</v>
+        <v>0.9033722014150385</v>
       </c>
       <c r="C159" t="n">
-        <v>0.01831351458961842</v>
+        <v>0.02171129979848456</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7865625283829963</v>
+        <v>0.9034380777197648</v>
       </c>
       <c r="C160" t="n">
-        <v>0.01521021416238921</v>
+        <v>0.0261726346760654</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>33.1</v>
+        <v>19.1</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7915157833874213</v>
+        <v>0.9038227514467891</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01848482781881797</v>
+        <v>0.02215560219495898</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>33.2</v>
+        <v>19.2</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7941003571550405</v>
+        <v>0.9040535556830036</v>
       </c>
       <c r="C162" t="n">
-        <v>0.01858228643463789</v>
+        <v>0.02009599856159656</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>33.3</v>
+        <v>19.3</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7993957805834196</v>
+        <v>0.9041920382247324</v>
       </c>
       <c r="C163" t="n">
-        <v>0.01776613576042282</v>
+        <v>0.02208531835812286</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>33.4</v>
+        <v>19.4</v>
       </c>
       <c r="B164" t="n">
-        <v>0.8008498974560714</v>
+        <v>0.9042751277497696</v>
       </c>
       <c r="C164" t="n">
-        <v>0.01715968648632238</v>
+        <v>0.02277948681533827</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>33.5</v>
+        <v>19.5</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8036583371202591</v>
+        <v>0.904324981464792</v>
       </c>
       <c r="C165" t="n">
-        <v>0.01444639100536417</v>
+        <v>0.02368921712112075</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>33.6</v>
+        <v>19.6</v>
       </c>
       <c r="B166" t="n">
-        <v>0.8060158382493096</v>
+        <v>0.9043548936938055</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0227868580381188</v>
+        <v>0.02342663004387932</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>33.7</v>
+        <v>19.7</v>
       </c>
       <c r="B167" t="n">
-        <v>0.8110414413250399</v>
+        <v>0.9043728410312135</v>
       </c>
       <c r="C167" t="n">
-        <v>0.02240401492213527</v>
+        <v>0.02691481425038252</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>33.8</v>
+        <v>19.8</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8103640182143669</v>
+        <v>0.9043836094336584</v>
       </c>
       <c r="C168" t="n">
-        <v>0.01874740874661135</v>
+        <v>0.0235604833316445</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>33.9</v>
+        <v>19.9</v>
       </c>
       <c r="B169" t="n">
-        <v>0.8139725984636091</v>
+        <v>0.9043900704751251</v>
       </c>
       <c r="C169" t="n">
-        <v>0.02147218053098912</v>
+        <v>0.02448679122001958</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8112930268323559</v>
+        <v>0.9043939471000053</v>
       </c>
       <c r="C170" t="n">
-        <v>0.01693047941151605</v>
+        <v>0.02070829491109624</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>34.1</v>
+        <v>20.1</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8162017056022828</v>
+        <v>0.9043962730749335</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02341452326757569</v>
+        <v>0.02383243809945616</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>34.2</v>
+        <v>20.2</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8170527074066907</v>
+        <v>0.9043976686598902</v>
       </c>
       <c r="C172" t="n">
-        <v>0.02027616253179637</v>
+        <v>0.0233337726735571</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>34.3</v>
+        <v>20.3</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8086419985822558</v>
+        <v>0.9043985060108644</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01298447597679698</v>
+        <v>0.02315112112434151</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>34.4</v>
+        <v>20.4</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8072796185623256</v>
+        <v>0.9043990084214488</v>
       </c>
       <c r="C174" t="n">
-        <v>0.01584324533751892</v>
+        <v>0.02387530805974471</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>34.5</v>
+        <v>20.5</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8101516153756557</v>
+        <v>0.9043993098677996</v>
       </c>
       <c r="C175" t="n">
-        <v>0.01757676682355988</v>
+        <v>0.02256396042062425</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>34.6</v>
+        <v>20.6</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8153844132367876</v>
+        <v>0.9043994907356101</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0190146329729426</v>
+        <v>0.01958352228501417</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>34.7</v>
+        <v>20.7</v>
       </c>
       <c r="B177" t="n">
-        <v>0.7980235636647725</v>
+        <v>0.9043995992562962</v>
       </c>
       <c r="C177" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.02208051354249355</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>34.8</v>
+        <v>20.8</v>
       </c>
       <c r="B178" t="n">
-        <v>0.8040754979681835</v>
+        <v>0.904399664368708</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02537397394929773</v>
+        <v>0.0152905190656821</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>34.9</v>
+        <v>20.9</v>
       </c>
       <c r="B179" t="n">
-        <v>0.8090897243238814</v>
+        <v>0.9043997034361551</v>
       </c>
       <c r="C179" t="n">
-        <v>0.01921995857104566</v>
+        <v>0.02593339309711842</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8135521702261691</v>
+        <v>0.9044747189997355</v>
       </c>
       <c r="C180" t="n">
-        <v>0.01641259239360447</v>
+        <v>0.02152869230212778</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>35.1</v>
+        <v>21.1</v>
       </c>
       <c r="B181" t="n">
-        <v>0.8174930572833278</v>
+        <v>0.9045197283378839</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01826096195463398</v>
+        <v>0.01884191130820509</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>35.2</v>
+        <v>21.2</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8102516791134154</v>
+        <v>0.9045467339407729</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01149433131987455</v>
+        <v>0.02135737126552436</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>35.3</v>
+        <v>21.3</v>
       </c>
       <c r="B183" t="n">
-        <v>0.8140703213827245</v>
+        <v>0.9045629373025061</v>
       </c>
       <c r="C183" t="n">
-        <v>0.02201117217116456</v>
+        <v>0.01991987499112471</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>35.4</v>
+        <v>21.4</v>
       </c>
       <c r="B184" t="n">
-        <v>0.8189306497005785</v>
+        <v>0.904572659319546</v>
       </c>
       <c r="C184" t="n">
-        <v>0.02171545219717973</v>
+        <v>0.02182783425021291</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>35.5</v>
+        <v>21.5</v>
       </c>
       <c r="B185" t="n">
-        <v>0.8209987853775983</v>
+        <v>0.9045784925297701</v>
       </c>
       <c r="C185" t="n">
-        <v>0.02348167072192717</v>
+        <v>0.01814475584689768</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>35.6</v>
+        <v>21.6</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8257947994212651</v>
+        <v>0.9045819924559045</v>
       </c>
       <c r="C186" t="n">
-        <v>0.02242670183298458</v>
+        <v>0.01982216319663189</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>35.7</v>
+        <v>21.7</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8210237120744053</v>
+        <v>0.9045840924115852</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01230797635476784</v>
+        <v>0.01904309887435351</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>35.8</v>
+        <v>21.8</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8164732072131483</v>
+        <v>0.9045853523849936</v>
       </c>
       <c r="C188" t="n">
-        <v>0.01719077499086455</v>
+        <v>0.02055288018989051</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>35.9</v>
+        <v>21.9</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8213171728287424</v>
+        <v>0.9045861083690386</v>
       </c>
       <c r="C189" t="n">
-        <v>0.01955586038646157</v>
+        <v>0.01711668533005514</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8083982435444479</v>
+        <v>0.9045865619594657</v>
       </c>
       <c r="C190" t="n">
-        <v>0.009329423352710565</v>
+        <v>0.01102161224312218</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>36.1</v>
+        <v>22.1</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8130512035642906</v>
+        <v>0.9045868341137218</v>
       </c>
       <c r="C191" t="n">
-        <v>0.01440751680400699</v>
+        <v>0.01101358087633477</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>36.2</v>
+        <v>22.2</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8172437246110971</v>
+        <v>0.9045869974062755</v>
       </c>
       <c r="C192" t="n">
-        <v>0.02070709509841459</v>
+        <v>0.01606603178433731</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>36.3</v>
+        <v>22.3</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8138010477070015</v>
+        <v>0.9045870953818077</v>
       </c>
       <c r="C193" t="n">
-        <v>0.01362518469597142</v>
+        <v>0.02349846085542159</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>36.4</v>
+        <v>22.4</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8115650180460449</v>
+        <v>0.9045871541671271</v>
       </c>
       <c r="C194" t="n">
-        <v>0.01769293467169999</v>
+        <v>0.01537458390046582</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>36.5</v>
+        <v>22.5</v>
       </c>
       <c r="B195" t="n">
-        <v>0.8161900504191668</v>
+        <v>0.9045871894383187</v>
       </c>
       <c r="C195" t="n">
-        <v>0.02022842164213725</v>
+        <v>0.02445901148723898</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>36.6</v>
+        <v>22.6</v>
       </c>
       <c r="B196" t="n">
-        <v>0.812263650711657</v>
+        <v>0.9045872106010338</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01213369422142784</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>36.7</v>
+        <v>22.7</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8147909115063333</v>
+        <v>0.9045872232986628</v>
       </c>
       <c r="C197" t="n">
-        <v>0.01981858676119576</v>
+        <v>0.01324094513106145</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>36.8</v>
+        <v>22.8</v>
       </c>
       <c r="B198" t="n">
-        <v>0.819247195163318</v>
+        <v>0.9045872309172402</v>
       </c>
       <c r="C198" t="n">
-        <v>0.01581676479771297</v>
+        <v>0.007618196565355183</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>36.9</v>
+        <v>22.9</v>
       </c>
       <c r="B199" t="n">
-        <v>0.8245341221680322</v>
+        <v>0.9045872354883865</v>
       </c>
       <c r="C199" t="n">
-        <v>0.01146305469897312</v>
+        <v>0.02002958066392407</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8246078816614916</v>
+        <v>0.9045872382310743</v>
       </c>
       <c r="C200" t="n">
-        <v>0.01675149078617591</v>
+        <v>0.01713073898950171</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>37.1</v>
+        <v>23.1</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8281435792325545</v>
+        <v>0.9045872398766871</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0238800511393506</v>
+        <v>0.01643910478761679</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>37.2</v>
+        <v>23.2</v>
       </c>
       <c r="B202" t="n">
-        <v>0.8260063144687988</v>
+        <v>0.9045872408640547</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0202287859954601</v>
+        <v>0.009740525233602785</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>37.3</v>
+        <v>23.3</v>
       </c>
       <c r="B203" t="n">
-        <v>0.8265025572868344</v>
+        <v>0.9045872414564753</v>
       </c>
       <c r="C203" t="n">
-        <v>0.02538810714926646</v>
+        <v>0.01174225686044754</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>37.4</v>
+        <v>23.4</v>
       </c>
       <c r="B204" t="n">
-        <v>0.8094080094060221</v>
+        <v>0.9045872418119276</v>
       </c>
       <c r="C204" t="n">
-        <v>0.005194748575538408</v>
+        <v>0.01289892700272104</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>37.5</v>
+        <v>23.5</v>
       </c>
       <c r="B205" t="n">
-        <v>0.8079059304952858</v>
+        <v>0.904587242025199</v>
       </c>
       <c r="C205" t="n">
-        <v>0.01223024433980277</v>
+        <v>0.005546064427864848</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>37.6</v>
+        <v>23.6</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8098581780290348</v>
+        <v>0.9045872421531619</v>
       </c>
       <c r="C206" t="n">
-        <v>0.01579523514849383</v>
+        <v>0.007476873070212619</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>37.7</v>
+        <v>23.7</v>
       </c>
       <c r="B207" t="n">
-        <v>0.8108486709975248</v>
+        <v>0.9045872422299396</v>
       </c>
       <c r="C207" t="n">
-        <v>0.01602203040499114</v>
+        <v>0.01037738495448895</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>37.8</v>
+        <v>23.8</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8119858319233344</v>
+        <v>0.9045872422760062</v>
       </c>
       <c r="C208" t="n">
-        <v>0.02963429624302814</v>
+        <v>0.005578784138006786</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>37.9</v>
+        <v>23.9</v>
       </c>
       <c r="B209" t="n">
-        <v>0.815675326134655</v>
+        <v>0.9045872423036462</v>
       </c>
       <c r="C209" t="n">
-        <v>0.02361172596027847</v>
+        <v>0.01086444530711012</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B210" t="n">
-        <v>0.8173500096762967</v>
+        <v>0.9045872423202302</v>
       </c>
       <c r="C210" t="n">
-        <v>0.01926530953825356</v>
+        <v>0.006121046998501124</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>38.1</v>
+        <v>24.1</v>
       </c>
       <c r="B211" t="n">
-        <v>0.8166045707505778</v>
+        <v>0.9045872423301806</v>
       </c>
       <c r="C211" t="n">
-        <v>0.01679588151228758</v>
+        <v>0.01604527660140477</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>38.2</v>
+        <v>24.2</v>
       </c>
       <c r="B212" t="n">
-        <v>0.803661096796337</v>
+        <v>0.9045872423361508</v>
       </c>
       <c r="C212" t="n">
-        <v>0.002531628236893005</v>
+        <v>0.00298906494390742</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>38.3</v>
+        <v>24.3</v>
       </c>
       <c r="B213" t="n">
-        <v>0.7997042042474305</v>
+        <v>0.904587242339733</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01220490899615797</v>
+        <v>0.01722647796285869</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>38.4</v>
+        <v>24.4</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7917637509876239</v>
+        <v>0.9045872423418823</v>
       </c>
       <c r="C214" t="n">
-        <v>0.009367209851252445</v>
+        <v>0.006971199826589674</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>38.5</v>
+        <v>24.5</v>
       </c>
       <c r="B215" t="n">
-        <v>0.7983209825082106</v>
+        <v>0.9045872423431719</v>
       </c>
       <c r="C215" t="n">
-        <v>0.01650462210878077</v>
+        <v>0.01622629889895342</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>38.6</v>
+        <v>24.6</v>
       </c>
       <c r="B216" t="n">
-        <v>0.7994560061289181</v>
+        <v>0.9045872423439456</v>
       </c>
       <c r="C216" t="n">
-        <v>0.01081611876000521</v>
+        <v>0.01031264623817221</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>38.7</v>
+        <v>24.8</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8034713142657448</v>
+        <v>0.9045872423444098</v>
       </c>
       <c r="C217" t="n">
-        <v>0.01914825461671713</v>
+        <v>0.01397990663481689</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>38.8</v>
+        <v>24.9</v>
       </c>
       <c r="B218" t="n">
-        <v>0.8076280425164686</v>
+        <v>0.9045872423446883</v>
       </c>
       <c r="C218" t="n">
-        <v>0.01945675464660128</v>
+        <v>0.005142964224950133</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>38.9</v>
+        <v>25</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8089024936658984</v>
+        <v>0.9045872423448555</v>
       </c>
       <c r="C219" t="n">
-        <v>0.01868402873911412</v>
+        <v>0.01939653669218541</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>39</v>
+        <v>25.1</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8107094471982383</v>
+        <v>0.9045872423449559</v>
       </c>
       <c r="C220" t="n">
-        <v>0.01437615846956668</v>
+        <v>0.0150219816503013</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>39.1</v>
+        <v>25.2</v>
       </c>
       <c r="B221" t="n">
-        <v>0.8166504488897223</v>
+        <v>0.9093699350754733</v>
       </c>
       <c r="C221" t="n">
-        <v>0.01665086067571196</v>
+        <v>0.01911772656439064</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>39.2</v>
+        <v>25.3</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8207450287069935</v>
+        <v>0.9122395507137838</v>
       </c>
       <c r="C222" t="n">
-        <v>0.02147895460103912</v>
+        <v>0.01642976243110195</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>39.3</v>
+        <v>25.4</v>
       </c>
       <c r="B223" t="n">
-        <v>0.8262042451819089</v>
+        <v>0.9139613200967701</v>
       </c>
       <c r="C223" t="n">
-        <v>0.02045819916609717</v>
+        <v>0.02025443730647365</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>39.4</v>
+        <v>25.5</v>
       </c>
       <c r="B224" t="n">
-        <v>0.8289733767112123</v>
+        <v>0.9149943817265619</v>
       </c>
       <c r="C224" t="n">
-        <v>0.01742161565061535</v>
+        <v>0.02054834139414851</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>39.5</v>
+        <v>25.6</v>
       </c>
       <c r="B225" t="n">
-        <v>0.8318613267830897</v>
+        <v>0.915614218704437</v>
       </c>
       <c r="C225" t="n">
-        <v>0.01764056871797806</v>
+        <v>0.01761291622021928</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>39.6</v>
+        <v>25.7</v>
       </c>
       <c r="B226" t="n">
-        <v>0.8337125379192449</v>
+        <v>0.9159861208911619</v>
       </c>
       <c r="C226" t="n">
-        <v>0.01719379375757592</v>
+        <v>0.007535838252390487</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>39.7</v>
+        <v>25.8</v>
       </c>
       <c r="B227" t="n">
-        <v>0.8351731750071406</v>
+        <v>0.916209262203197</v>
       </c>
       <c r="C227" t="n">
-        <v>0.01931037392558595</v>
+        <v>0.02297969397867721</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>39.8</v>
+        <v>25.9</v>
       </c>
       <c r="B228" t="n">
-        <v>0.8390020085549224</v>
+        <v>0.9163431469904181</v>
       </c>
       <c r="C228" t="n">
-        <v>0.01905279377457717</v>
+        <v>0.02296516150863527</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>39.9</v>
+        <v>26</v>
       </c>
       <c r="B229" t="n">
-        <v>0.8421008118502957</v>
+        <v>0.9164234778627506</v>
       </c>
       <c r="C229" t="n">
-        <v>0.01966139819677252</v>
+        <v>0.01787240495335909</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>40</v>
+        <v>26.1</v>
       </c>
       <c r="B230" t="n">
-        <v>0.8437637359049379</v>
+        <v>0.9164716763861502</v>
       </c>
       <c r="C230" t="n">
-        <v>0.01417935207655963</v>
+        <v>0.01338097468947086</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>40.1</v>
+        <v>26.2</v>
       </c>
       <c r="B231" t="n">
-        <v>0.842440963918266</v>
+        <v>0.9165005955001898</v>
       </c>
       <c r="C231" t="n">
-        <v>0.008619849260582556</v>
+        <v>0.01924878897995859</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>40.2</v>
+        <v>26.3</v>
       </c>
       <c r="B232" t="n">
-        <v>0.8424316784519142</v>
+        <v>0.9165179469686137</v>
       </c>
       <c r="C232" t="n">
-        <v>0.01497372411266844</v>
+        <v>0.01644552853524611</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>40.3</v>
+        <v>26.4</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8445141136755084</v>
+        <v>0.916528357849668</v>
       </c>
       <c r="C233" t="n">
-        <v>0.01546908902883118</v>
+        <v>0.01303848559771712</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>40.4</v>
+        <v>26.5</v>
       </c>
       <c r="B234" t="n">
-        <v>0.8456988260217736</v>
+        <v>0.9165346043783007</v>
       </c>
       <c r="C234" t="n">
-        <v>0.01596021465835477</v>
+        <v>0.01299770535364872</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>40.5</v>
+        <v>26.6</v>
       </c>
       <c r="B235" t="n">
-        <v>0.8404098680964848</v>
+        <v>0.9165383522954801</v>
       </c>
       <c r="C235" t="n">
-        <v>0.01667362453446606</v>
+        <v>0.01906316761179055</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>40.6</v>
+        <v>26.7</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8426784773267385</v>
+        <v>0.9165406010457878</v>
       </c>
       <c r="C236" t="n">
-        <v>0.01516434817372181</v>
+        <v>0.0154843109683793</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>40.7</v>
+        <v>26.8</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8442849350846411</v>
+        <v>0.9165419502959725</v>
       </c>
       <c r="C237" t="n">
-        <v>0.01879087776618657</v>
+        <v>0.01893963638193611</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>40.8</v>
+        <v>26.9</v>
       </c>
       <c r="B238" t="n">
-        <v>0.8462757869955118</v>
+        <v>0.9165427598460834</v>
       </c>
       <c r="C238" t="n">
-        <v>0.01271125354354725</v>
+        <v>0.02136003222547148</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>40.9</v>
+        <v>27</v>
       </c>
       <c r="B239" t="n">
-        <v>0.8476361274547611</v>
+        <v>0.9165432455761499</v>
       </c>
       <c r="C239" t="n">
-        <v>0.01595386572735493</v>
+        <v>0.01626696973978562</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>41</v>
+        <v>27.1</v>
       </c>
       <c r="B240" t="n">
-        <v>0.847550609783323</v>
+        <v>0.9165435370141898</v>
       </c>
       <c r="C240" t="n">
-        <v>0.01341132624250455</v>
+        <v>0.01668939767302439</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>41.1</v>
+        <v>27.2</v>
       </c>
       <c r="B241" t="n">
-        <v>0.8467126746272897</v>
+        <v>0.9165437118770138</v>
       </c>
       <c r="C241" t="n">
-        <v>0.01680621277296801</v>
+        <v>0.02077485093466954</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>41.2</v>
+        <v>27.3</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8409868274545526</v>
+        <v>0.916543816794708</v>
       </c>
       <c r="C242" t="n">
-        <v>0.01100821626555138</v>
+        <v>0.02225986323066777</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>41.3</v>
+        <v>27.4</v>
       </c>
       <c r="B243" t="n">
-        <v>0.8428984692242146</v>
+        <v>0.9165438797453246</v>
       </c>
       <c r="C243" t="n">
-        <v>0.01438262854866004</v>
+        <v>0.02246131250638628</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>41.4</v>
+        <v>27.5</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8452159370974316</v>
+        <v>0.9165439175156945</v>
       </c>
       <c r="C244" t="n">
-        <v>0.01373631062281466</v>
+        <v>0.02141290499194168</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>41.5</v>
+        <v>27.6</v>
       </c>
       <c r="B245" t="n">
-        <v>0.8469171543223674</v>
+        <v>0.9165439401779165</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0140493798905031</v>
+        <v>0.01620231084727262</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>41.6</v>
+        <v>27.7</v>
       </c>
       <c r="B246" t="n">
-        <v>0.8410257839298437</v>
+        <v>0.9165439537752498</v>
       </c>
       <c r="C246" t="n">
-        <v>0.01235223892429158</v>
+        <v>0.01795590039630001</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>41.7</v>
+        <v>27.8</v>
       </c>
       <c r="B247" t="n">
-        <v>0.8428998200020749</v>
+        <v>0.9165439619336496</v>
       </c>
       <c r="C247" t="n">
-        <v>0.01110519293304225</v>
+        <v>0.0196775942787801</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>41.8</v>
+        <v>27.9</v>
       </c>
       <c r="B248" t="n">
-        <v>0.844995837102928</v>
+        <v>0.9165439668286895</v>
       </c>
       <c r="C248" t="n">
-        <v>0.01546855733654284</v>
+        <v>0.01522046847278733</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>41.9</v>
+        <v>28</v>
       </c>
       <c r="B249" t="n">
-        <v>0.8454628775782981</v>
+        <v>0.9165439697657135</v>
       </c>
       <c r="C249" t="n">
-        <v>0.01426425010714312</v>
+        <v>0.01881370443852979</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>42</v>
+        <v>28.1</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8317875597597506</v>
+        <v>0.9165439715279279</v>
       </c>
       <c r="C250" t="n">
-        <v>0.001633986841432997</v>
+        <v>0.01798373780392469</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>42.1</v>
+        <v>28.2</v>
       </c>
       <c r="B251" t="n">
-        <v>0.8341131856082487</v>
+        <v>0.9165439725852564</v>
       </c>
       <c r="C251" t="n">
-        <v>0.02015247615866293</v>
+        <v>0.024851329829881</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>42.2</v>
+        <v>28.3</v>
       </c>
       <c r="B252" t="n">
-        <v>0.8273500063109617</v>
+        <v>0.9165439732196538</v>
       </c>
       <c r="C252" t="n">
-        <v>0.009359231266131772</v>
+        <v>0.02182533760482123</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>42.3</v>
+        <v>28.4</v>
       </c>
       <c r="B253" t="n">
-        <v>0.8101740565661719</v>
+        <v>0.9165439736002919</v>
       </c>
       <c r="C253" t="n">
-        <v>6.116256881272011e-05</v>
+        <v>0.01603422767914957</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>42.4</v>
+        <v>28.5</v>
       </c>
       <c r="B254" t="n">
-        <v>0.810982974995009</v>
+        <v>0.916543973828675</v>
       </c>
       <c r="C254" t="n">
-        <v>0.01185979254744733</v>
+        <v>0.01911900186148397</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>42.5</v>
+        <v>28.6</v>
       </c>
       <c r="B255" t="n">
-        <v>0.8144220211882135</v>
+        <v>0.9165439739657048</v>
       </c>
       <c r="C255" t="n">
-        <v>0.01704968807867939</v>
+        <v>0.01674367360957498</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>42.6</v>
+        <v>28.7</v>
       </c>
       <c r="B256" t="n">
-        <v>0.8204052171607398</v>
+        <v>0.9165439740479228</v>
       </c>
       <c r="C256" t="n">
-        <v>0.01885752329996207</v>
+        <v>0.02292354626839606</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>42.7</v>
+        <v>28.8</v>
       </c>
       <c r="B257" t="n">
-        <v>0.8253087901170223</v>
+        <v>0.9165439740972534</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01591621299270739</v>
+        <v>0.02019957282247169</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>42.8</v>
+        <v>28.9</v>
       </c>
       <c r="B258" t="n">
-        <v>0.8304959541906685</v>
+        <v>0.9165439741268517</v>
       </c>
       <c r="C258" t="n">
-        <v>0.01582558265088442</v>
+        <v>0.02135055832943377</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>42.9</v>
+        <v>29</v>
       </c>
       <c r="B259" t="n">
-        <v>0.8338929938370938</v>
+        <v>0.9165439741446109</v>
       </c>
       <c r="C259" t="n">
-        <v>0.01581913594725702</v>
+        <v>0.01905269084814149</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>43</v>
+        <v>29.1</v>
       </c>
       <c r="B260" t="n">
-        <v>0.8378612377887079</v>
+        <v>0.9165439741552663</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01676096497944518</v>
+        <v>0.02228050249820304</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>43.1</v>
+        <v>29.2</v>
       </c>
       <c r="B261" t="n">
-        <v>0.839257557839501</v>
+        <v>0.9165439741616597</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01390128784100008</v>
+        <v>0.01924127310259414</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>43.2</v>
+        <v>29.3</v>
       </c>
       <c r="B262" t="n">
-        <v>0.8426619757709168</v>
+        <v>0.9165439741654955</v>
       </c>
       <c r="C262" t="n">
-        <v>0.01333004174778228</v>
+        <v>0.02233681127660089</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>43.3</v>
+        <v>29.4</v>
       </c>
       <c r="B263" t="n">
-        <v>0.8446383160359952</v>
+        <v>0.9165439741677971</v>
       </c>
       <c r="C263" t="n">
-        <v>0.01321393190885342</v>
+        <v>0.02103349106507754</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>43.4</v>
+        <v>29.5</v>
       </c>
       <c r="B264" t="n">
-        <v>0.8370714261324422</v>
+        <v>0.9165439741691781</v>
       </c>
       <c r="C264" t="n">
-        <v>0.01280764808629079</v>
+        <v>0.02199390654023702</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>43.5</v>
+        <v>29.6</v>
       </c>
       <c r="B265" t="n">
-        <v>0.8386900420034521</v>
+        <v>0.9165443186853458</v>
       </c>
       <c r="C265" t="n">
-        <v>0.01325264894100713</v>
+        <v>0.02024110894974306</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>43.6</v>
+        <v>29.7</v>
       </c>
       <c r="B266" t="n">
-        <v>0.8420310976610322</v>
+        <v>0.9165445253950464</v>
       </c>
       <c r="C266" t="n">
-        <v>0.01012079734565315</v>
+        <v>0.01852220404443201</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>43.7</v>
+        <v>29.8</v>
       </c>
       <c r="B267" t="n">
-        <v>0.8436849726973334</v>
+        <v>0.9165446494208668</v>
       </c>
       <c r="C267" t="n">
-        <v>0.01489588667485744</v>
+        <v>0.01968189558899926</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>43.8</v>
+        <v>29.9</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8461191687611499</v>
+        <v>0.916544723836359</v>
       </c>
       <c r="C268" t="n">
-        <v>0.01517940243294505</v>
+        <v>0.01952376635784601</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>43.9</v>
+        <v>30</v>
       </c>
       <c r="B269" t="n">
-        <v>0.8489550334875341</v>
+        <v>0.9165447684856544</v>
       </c>
       <c r="C269" t="n">
-        <v>0.01316345149511218</v>
+        <v>0.02006390008071787</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44</v>
+        <v>30.1</v>
       </c>
       <c r="B270" t="n">
-        <v>0.8508661975996258</v>
+        <v>0.9165447952752316</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01492629977559442</v>
+        <v>0.02226726277917368</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44.1</v>
+        <v>30.2</v>
       </c>
       <c r="B271" t="n">
-        <v>0.8520164257180773</v>
+        <v>0.9165448113489779</v>
       </c>
       <c r="C271" t="n">
-        <v>0.01907957671940562</v>
+        <v>0.01972651725425427</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44.2</v>
+        <v>30.3</v>
       </c>
       <c r="B272" t="n">
-        <v>0.8542134192333044</v>
+        <v>0.9165448209932258</v>
       </c>
       <c r="C272" t="n">
-        <v>0.01301539123803013</v>
+        <v>0.0198265052769886</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44.3</v>
+        <v>30.4</v>
       </c>
       <c r="B273" t="n">
-        <v>0.8516186825848276</v>
+        <v>0.9165448267797744</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01120419410001545</v>
+        <v>0.02197458404813618</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44.4</v>
+        <v>30.5</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8506157853591727</v>
+        <v>0.9165448302517036</v>
       </c>
       <c r="C274" t="n">
-        <v>0.01297833420925987</v>
+        <v>0.01718465374572331</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44.5</v>
+        <v>30.6</v>
       </c>
       <c r="B275" t="n">
-        <v>0.8526640293407259</v>
+        <v>0.9165448323348612</v>
       </c>
       <c r="C275" t="n">
-        <v>0.01425868472878602</v>
+        <v>0.02093197176117069</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44.6</v>
+        <v>30.7</v>
       </c>
       <c r="B276" t="n">
-        <v>0.8540679371826404</v>
+        <v>0.9165448335847557</v>
       </c>
       <c r="C276" t="n">
-        <v>0.01319224397876103</v>
+        <v>0.0132446507047318</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44.7</v>
+        <v>30.8</v>
       </c>
       <c r="B277" t="n">
-        <v>0.8559762844987456</v>
+        <v>0.9165448343346924</v>
       </c>
       <c r="C277" t="n">
-        <v>0.01210378609648</v>
+        <v>0.01677316787008708</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44.8</v>
+        <v>30.9</v>
       </c>
       <c r="B278" t="n">
-        <v>0.8566772001195553</v>
+        <v>0.9165448347846544</v>
       </c>
       <c r="C278" t="n">
-        <v>0.01141511827691898</v>
+        <v>0.02009092969517417</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44.9</v>
+        <v>31</v>
       </c>
       <c r="B279" t="n">
-        <v>0.858022648148531</v>
+        <v>0.9165448350546317</v>
       </c>
       <c r="C279" t="n">
-        <v>0.01852054998755585</v>
+        <v>0.02329515090739002</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>45</v>
+        <v>31.1</v>
       </c>
       <c r="B280" t="n">
-        <v>0.8582186305868974</v>
+        <v>0.916544835216618</v>
       </c>
       <c r="C280" t="n">
-        <v>0.01187849583968932</v>
+        <v>0.02373785241950993</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>45.1</v>
+        <v>31.2</v>
       </c>
       <c r="B281" t="n">
-        <v>0.85818279637215</v>
+        <v>0.9165448353138098</v>
       </c>
       <c r="C281" t="n">
-        <v>0.009863997479884432</v>
+        <v>0.01971755486456793</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>45.2</v>
+        <v>31.3</v>
       </c>
       <c r="B282" t="n">
-        <v>0.8564293279462702</v>
+        <v>0.9165448353721249</v>
       </c>
       <c r="C282" t="n">
-        <v>0.01250385701000429</v>
+        <v>0.009841285469752763</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>45.3</v>
+        <v>31.4</v>
       </c>
       <c r="B283" t="n">
-        <v>0.8569456056733541</v>
+        <v>0.916544835407114</v>
       </c>
       <c r="C283" t="n">
-        <v>0.009841971841971938</v>
+        <v>0.0167852957007543</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>45.4</v>
+        <v>31.5</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8580886392176161</v>
+        <v>0.9165448354281073</v>
       </c>
       <c r="C284" t="n">
-        <v>0.01246171563935081</v>
+        <v>0.01386564755313986</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>45.5</v>
+        <v>31.6</v>
       </c>
       <c r="B285" t="n">
-        <v>0.8584698161130958</v>
+        <v>0.9165448354407033</v>
       </c>
       <c r="C285" t="n">
-        <v>0.01194355526551294</v>
+        <v>0.01358453283467847</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>45.6</v>
+        <v>31.7</v>
       </c>
       <c r="B286" t="n">
-        <v>0.8604383035471203</v>
+        <v>0.9165448354482609</v>
       </c>
       <c r="C286" t="n">
-        <v>0.008228799512893847</v>
+        <v>0.01913729684746648</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>45.7</v>
+        <v>31.8</v>
       </c>
       <c r="B287" t="n">
-        <v>0.8613857905961266</v>
+        <v>0.9165448354527955</v>
       </c>
       <c r="C287" t="n">
-        <v>0.01151560145662442</v>
+        <v>0.01747307857618412</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>45.8</v>
+        <v>31.9</v>
       </c>
       <c r="B288" t="n">
-        <v>0.8625341428616515</v>
+        <v>0.9165448354555163</v>
       </c>
       <c r="C288" t="n">
-        <v>0.008995043057741651</v>
+        <v>0.01818393915753876</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>45.9</v>
+        <v>32</v>
       </c>
       <c r="B289" t="n">
-        <v>0.8640608675933301</v>
+        <v>0.9165448354571488</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0136947472119735</v>
+        <v>0.02352792432723475</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>46</v>
+        <v>32.1</v>
       </c>
       <c r="B290" t="n">
-        <v>0.8652247650921884</v>
+        <v>0.9165448354581283</v>
       </c>
       <c r="C290" t="n">
-        <v>0.0132223210265734</v>
+        <v>0.02197706233742759</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>46.1</v>
+        <v>32.2</v>
       </c>
       <c r="B291" t="n">
-        <v>0.8640738362040056</v>
+        <v>0.9165448354587159</v>
       </c>
       <c r="C291" t="n">
-        <v>0.009711065391769517</v>
+        <v>0.01879478791224326</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>46.2</v>
+        <v>32.3</v>
       </c>
       <c r="B292" t="n">
-        <v>0.8631835368156033</v>
+        <v>0.9165448354590685</v>
       </c>
       <c r="C292" t="n">
-        <v>0.005104014735284744</v>
+        <v>0.009724395910263143</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>46.3</v>
+        <v>32.4</v>
       </c>
       <c r="B293" t="n">
-        <v>0.8631584932303992</v>
+        <v>0.9165448354592801</v>
       </c>
       <c r="C293" t="n">
-        <v>0.01069470301251812</v>
+        <v>0.01987054569522426</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>46.4</v>
+        <v>32.5</v>
       </c>
       <c r="B294" t="n">
-        <v>0.8620892005339832</v>
+        <v>0.9188606102594008</v>
       </c>
       <c r="C294" t="n">
-        <v>0.01343354342086616</v>
+        <v>0.0238786620708175</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>46.5</v>
+        <v>32.6</v>
       </c>
       <c r="B295" t="n">
-        <v>0.8635277350999591</v>
+        <v>0.9202500751394733</v>
       </c>
       <c r="C295" t="n">
-        <v>0.01007224585636471</v>
+        <v>0.01472024020690119</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>46.6</v>
+        <v>32.7</v>
       </c>
       <c r="B296" t="n">
-        <v>0.8633537742172656</v>
+        <v>0.9210837540675169</v>
       </c>
       <c r="C296" t="n">
-        <v>0.006897256934696385</v>
+        <v>0.01948953548739208</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>46.7</v>
+        <v>32.8</v>
       </c>
       <c r="B297" t="n">
-        <v>0.8645675849086454</v>
+        <v>0.9215839614243428</v>
       </c>
       <c r="C297" t="n">
-        <v>0.01199736723061878</v>
+        <v>0.006367362683129625</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>46.8</v>
+        <v>32.9</v>
       </c>
       <c r="B298" t="n">
-        <v>0.8654475833249159</v>
+        <v>0.9218840858384386</v>
       </c>
       <c r="C298" t="n">
-        <v>0.004861149333406927</v>
+        <v>0.01590472486356005</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>46.9</v>
+        <v>33</v>
       </c>
       <c r="B299" t="n">
-        <v>0.8607652861258644</v>
+        <v>0.9220641604868959</v>
       </c>
       <c r="C299" t="n">
-        <v>0.01099597049519841</v>
+        <v>0.02064898232238155</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>47</v>
+        <v>33.1</v>
       </c>
       <c r="B300" t="n">
-        <v>0.8622119409234426</v>
+        <v>0.9221722052759702</v>
       </c>
       <c r="C300" t="n">
-        <v>0.014752048802864</v>
+        <v>0.01705093524629499</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>47.1</v>
+        <v>33.2</v>
       </c>
       <c r="B301" t="n">
-        <v>0.8571110821277718</v>
+        <v>0.922237032149415</v>
       </c>
       <c r="C301" t="n">
-        <v>0.005311287256214169</v>
+        <v>0.01816715508344438</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>47.2</v>
+        <v>33.3</v>
       </c>
       <c r="B302" t="n">
-        <v>0.8530396426823149</v>
+        <v>0.9222759282734817</v>
       </c>
       <c r="C302" t="n">
-        <v>0.004743527978370046</v>
+        <v>0.02102616882867528</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>47.3</v>
+        <v>33.4</v>
       </c>
       <c r="B303" t="n">
-        <v>0.855513038394651</v>
+        <v>0.9222992659479218</v>
       </c>
       <c r="C303" t="n">
-        <v>0.003846080613024445</v>
+        <v>0.01819718947879985</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>47.4</v>
+        <v>33.5</v>
       </c>
       <c r="B304" t="n">
-        <v>0.857111439633648</v>
+        <v>0.9223132685525858</v>
       </c>
       <c r="C304" t="n">
-        <v>0.01196599254560717</v>
+        <v>0.02062762236483752</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>47.5</v>
+        <v>33.6</v>
       </c>
       <c r="B305" t="n">
-        <v>0.8585199894254276</v>
+        <v>0.9223216701153841</v>
       </c>
       <c r="C305" t="n">
-        <v>0.006775030132447269</v>
+        <v>0.02277957944302992</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>47.6</v>
+        <v>33.7</v>
       </c>
       <c r="B306" t="n">
-        <v>0.855665363917487</v>
+        <v>0.9223267110530632</v>
       </c>
       <c r="C306" t="n">
-        <v>0.008845778921744546</v>
+        <v>0.0205253335378825</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>47.7</v>
+        <v>33.8</v>
       </c>
       <c r="B307" t="n">
-        <v>0.8575238528852062</v>
+        <v>0.9223297356156707</v>
       </c>
       <c r="C307" t="n">
-        <v>0.01078049092584043</v>
+        <v>0.01799584405490118</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>47.8</v>
+        <v>33.9</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8595554773453875</v>
+        <v>0.9223315503532351</v>
       </c>
       <c r="C308" t="n">
-        <v>0.00767321791291975</v>
+        <v>0.01450808423786324</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>47.9</v>
+        <v>34</v>
       </c>
       <c r="B309" t="n">
-        <v>0.8614020877200821</v>
+        <v>0.9223326391957737</v>
       </c>
       <c r="C309" t="n">
-        <v>0.007459778698200086</v>
+        <v>0.01858987615929407</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>48</v>
+        <v>34.1</v>
       </c>
       <c r="B310" t="n">
-        <v>0.863143218318105</v>
+        <v>0.922333292501297</v>
       </c>
       <c r="C310" t="n">
-        <v>0.008848489566432506</v>
+        <v>0.02250627689363553</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>48.1</v>
+        <v>34.2</v>
       </c>
       <c r="B311" t="n">
-        <v>0.8647212666744166</v>
+        <v>0.9223336844846109</v>
       </c>
       <c r="C311" t="n">
-        <v>0.008412597092116794</v>
+        <v>0.01646240969402264</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>48.2</v>
+        <v>34.3</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8659687990285329</v>
+        <v>0.9223339196745993</v>
       </c>
       <c r="C312" t="n">
-        <v>0.007110094897373991</v>
+        <v>0.01241425289114366</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>48.3</v>
+        <v>34.4</v>
       </c>
       <c r="B313" t="n">
-        <v>0.8667213852773726</v>
+        <v>0.9223340607885923</v>
       </c>
       <c r="C313" t="n">
-        <v>0.01103377495431754</v>
+        <v>0.01758278169321967</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>48.4</v>
+        <v>34.5</v>
       </c>
       <c r="B314" t="n">
-        <v>0.8676834941422639</v>
+        <v>0.9223341454569881</v>
       </c>
       <c r="C314" t="n">
-        <v>0.007260701793236748</v>
+        <v>0.01949169669917646</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>48.5</v>
+        <v>34.6</v>
       </c>
       <c r="B315" t="n">
-        <v>0.8679682796911229</v>
+        <v>0.9223341962580257</v>
       </c>
       <c r="C315" t="n">
-        <v>0.007613243117681658</v>
+        <v>0.01342672552098587</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>48.6</v>
+        <v>34.7</v>
       </c>
       <c r="B316" t="n">
-        <v>0.868447531419034</v>
+        <v>0.9223342267386482</v>
       </c>
       <c r="C316" t="n">
-        <v>0.005259464728155184</v>
+        <v>0.02137947276424815</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>48.7</v>
+        <v>34.8</v>
       </c>
       <c r="B317" t="n">
-        <v>0.8662795730987681</v>
+        <v>0.9223342450270217</v>
       </c>
       <c r="C317" t="n">
-        <v>0.005973618644200668</v>
+        <v>0.02165912491506522</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>48.8</v>
+        <v>34.9</v>
       </c>
       <c r="B318" t="n">
-        <v>0.8670433103855616</v>
+        <v>0.9223342560000457</v>
       </c>
       <c r="C318" t="n">
-        <v>0.004764370652456595</v>
+        <v>0.01809764972003727</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>48.9</v>
+        <v>35</v>
       </c>
       <c r="B319" t="n">
-        <v>0.8673209706202277</v>
+        <v>0.9223342625838601</v>
       </c>
       <c r="C319" t="n">
-        <v>0.007315788506384775</v>
+        <v>0.01660804122627284</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>49</v>
+        <v>35.1</v>
       </c>
       <c r="B320" t="n">
-        <v>0.8681980439866849</v>
+        <v>0.9223342665341487</v>
       </c>
       <c r="C320" t="n">
-        <v>0.006695551824220295</v>
+        <v>0.01408158497946363</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>49.1</v>
+        <v>35.2</v>
       </c>
       <c r="B321" t="n">
-        <v>0.86944271087929</v>
+        <v>0.9223342689043221</v>
       </c>
       <c r="C321" t="n">
-        <v>0.004333109491597667</v>
+        <v>0.02053175407453803</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>49.2</v>
+        <v>35.3</v>
       </c>
       <c r="B322" t="n">
-        <v>0.8682839610491609</v>
+        <v>0.9223342703264261</v>
       </c>
       <c r="C322" t="n">
-        <v>0.005216101239676028</v>
+        <v>0.01651418099051075</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>49.3</v>
+        <v>35.4</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8683204792599563</v>
+        <v>0.9223342711796885</v>
       </c>
       <c r="C323" t="n">
-        <v>0.008820660692965918</v>
+        <v>0.01814715620407661</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>49.4</v>
+        <v>35.5</v>
       </c>
       <c r="B324" t="n">
-        <v>0.8690827011251768</v>
+        <v>0.9223342716916459</v>
       </c>
       <c r="C324" t="n">
-        <v>0.008070809378187743</v>
+        <v>0.01466494570761433</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>49.5</v>
+        <v>35.6</v>
       </c>
       <c r="B325" t="n">
-        <v>0.869463691601516</v>
+        <v>0.9223342719988202</v>
       </c>
       <c r="C325" t="n">
-        <v>0.006618054074322993</v>
+        <v>0.01607025496152345</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>49.6</v>
+        <v>35.7</v>
       </c>
       <c r="B326" t="n">
-        <v>0.8713084850904105</v>
+        <v>0.9223342721831249</v>
       </c>
       <c r="C326" t="n">
-        <v>0.007303981222552522</v>
+        <v>0.0206478692746655</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>49.7</v>
+        <v>35.8</v>
       </c>
       <c r="B327" t="n">
-        <v>0.8705009195379317</v>
+        <v>0.9223342722937078</v>
       </c>
       <c r="C327" t="n">
-        <v>0.005419506320891629</v>
+        <v>0.01970522460539009</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>49.8</v>
+        <v>35.9</v>
       </c>
       <c r="B328" t="n">
-        <v>0.8711381350120226</v>
+        <v>0.9223342723600574</v>
       </c>
       <c r="C328" t="n">
-        <v>0.004509289611703183</v>
+        <v>0.01726963794517532</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>49.9</v>
+        <v>36</v>
       </c>
       <c r="B329" t="n">
-        <v>0.8723345383835086</v>
+        <v>0.9223342723998673</v>
       </c>
       <c r="C329" t="n">
-        <v>0.003841942269262467</v>
+        <v>0.0198930799198282</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>50</v>
+        <v>36.1</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8729520243677651</v>
+        <v>0.9223342724237532</v>
       </c>
       <c r="C330" t="n">
-        <v>0.005955440331015964</v>
+        <v>0.01630236914662278</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>50.1</v>
+        <v>36.2</v>
       </c>
       <c r="B331" t="n">
-        <v>0.8733086952517402</v>
+        <v>0.9223342724380847</v>
       </c>
       <c r="C331" t="n">
-        <v>0.009506690921915023</v>
+        <v>0.01620951540207557</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>50.2</v>
+        <v>36.3</v>
       </c>
       <c r="B332" t="n">
-        <v>0.8738676075926077</v>
+        <v>0.9223342724466835</v>
       </c>
       <c r="C332" t="n">
-        <v>0.004545449499921386</v>
+        <v>0.01961443737696473</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>50.3</v>
+        <v>36.4</v>
       </c>
       <c r="B333" t="n">
-        <v>0.8736190012541581</v>
+        <v>0.9223342724518427</v>
       </c>
       <c r="C333" t="n">
-        <v>0.005834443523247857</v>
+        <v>0.01669661626712083</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>50.4</v>
+        <v>36.5</v>
       </c>
       <c r="B334" t="n">
-        <v>0.8745770935225532</v>
+        <v>0.9223342724549385</v>
       </c>
       <c r="C334" t="n">
-        <v>0.008067292538864148</v>
+        <v>0.01809301338711201</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>50.5</v>
+        <v>36.6</v>
       </c>
       <c r="B335" t="n">
-        <v>0.8750819050962283</v>
+        <v>0.922334272456796</v>
       </c>
       <c r="C335" t="n">
-        <v>0.006341303092910464</v>
+        <v>0.01883627325518681</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>50.6</v>
+        <v>36.7</v>
       </c>
       <c r="B336" t="n">
-        <v>0.8746263794515856</v>
+        <v>0.9256750819815568</v>
       </c>
       <c r="C336" t="n">
-        <v>0.004249459022467854</v>
+        <v>0.01819577877413718</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>50.7</v>
+        <v>36.8</v>
       </c>
       <c r="B337" t="n">
-        <v>0.8753298513558865</v>
+        <v>0.9276795676964135</v>
       </c>
       <c r="C337" t="n">
-        <v>0.008568404508286949</v>
+        <v>0.01476675303085849</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>50.8</v>
+        <v>36.9</v>
       </c>
       <c r="B338" t="n">
-        <v>0.8752722273785382</v>
+        <v>0.9288822591253273</v>
       </c>
       <c r="C338" t="n">
-        <v>0.004407025310383179</v>
+        <v>0.01822750506188033</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>50.9</v>
+        <v>37</v>
       </c>
       <c r="B339" t="n">
-        <v>0.875827095801509</v>
+        <v>0.9296038739826757</v>
       </c>
       <c r="C339" t="n">
-        <v>0.004687009770422665</v>
+        <v>0.01757029811927151</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>51</v>
+        <v>37.1</v>
       </c>
       <c r="B340" t="n">
-        <v>0.8756080394657491</v>
+        <v>0.9300368428970847</v>
       </c>
       <c r="C340" t="n">
-        <v>0.004115797979001873</v>
+        <v>0.01477334077164536</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>51.1</v>
+        <v>37.2</v>
       </c>
       <c r="B341" t="n">
-        <v>0.8763685093350385</v>
+        <v>0.9302966242457301</v>
       </c>
       <c r="C341" t="n">
-        <v>0.004956133522998352</v>
+        <v>0.01727252650843323</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>51.2</v>
+        <v>37.3</v>
       </c>
       <c r="B342" t="n">
-        <v>0.8770284864078091</v>
+        <v>0.9304524930549174</v>
       </c>
       <c r="C342" t="n">
-        <v>0.002398898549895649</v>
+        <v>0.0188402943088579</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>51.3</v>
+        <v>37.4</v>
       </c>
       <c r="B343" t="n">
-        <v>0.8769492009008517</v>
+        <v>0.9305460143404298</v>
       </c>
       <c r="C343" t="n">
-        <v>0.002623207388080992</v>
+        <v>0.01857609531338443</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>51.4</v>
+        <v>37.5</v>
       </c>
       <c r="B344" t="n">
-        <v>0.8771599323994044</v>
+        <v>0.9306021271117372</v>
       </c>
       <c r="C344" t="n">
-        <v>0.00335136139666561</v>
+        <v>0.02049099897897981</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>51.5</v>
+        <v>37.6</v>
       </c>
       <c r="B345" t="n">
-        <v>0.8781838715476735</v>
+        <v>0.9306357947745215</v>
       </c>
       <c r="C345" t="n">
-        <v>0.004731452269355244</v>
+        <v>0.01627072200018495</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>51.6</v>
+        <v>37.7</v>
       </c>
       <c r="B346" t="n">
-        <v>0.8786010317601484</v>
+        <v>0.9306559953721922</v>
       </c>
       <c r="C346" t="n">
-        <v>0.002009532195898942</v>
+        <v>0.01623336644893022</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>51.7</v>
+        <v>37.8</v>
       </c>
       <c r="B347" t="n">
-        <v>0.8789975690639044</v>
+        <v>0.9306681157307947</v>
       </c>
       <c r="C347" t="n">
-        <v>0.003399626906977659</v>
+        <v>0.01715385135656486</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>51.8</v>
+        <v>37.9</v>
       </c>
       <c r="B348" t="n">
-        <v>0.8800163626354295</v>
+        <v>0.9306753879459562</v>
       </c>
       <c r="C348" t="n">
-        <v>0.003510787516348757</v>
+        <v>0.01896933072183194</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>51.9</v>
+        <v>38</v>
       </c>
       <c r="B349" t="n">
-        <v>0.8791189060190079</v>
+        <v>0.930679751275053</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0007106116918086018</v>
+        <v>0.02116908330399486</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>52</v>
+        <v>38.1</v>
       </c>
       <c r="B350" t="n">
-        <v>0.8791585968673654</v>
+        <v>0.930682369272511</v>
       </c>
       <c r="C350" t="n">
-        <v>0.002753317816069394</v>
+        <v>0.01631103175411358</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>52.1</v>
+        <v>38.2</v>
       </c>
       <c r="B351" t="n">
-        <v>0.8796123218361117</v>
+        <v>0.930683940070986</v>
       </c>
       <c r="C351" t="n">
-        <v>0.001904799930077152</v>
+        <v>0.01208461507519683</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>52.2</v>
+        <v>38.3</v>
       </c>
       <c r="B352" t="n">
-        <v>0.8806078260587321</v>
+        <v>0.9306848825500708</v>
       </c>
       <c r="C352" t="n">
-        <v>0.002497776176227362</v>
+        <v>0.0200708077067204</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>52.3</v>
+        <v>38.4</v>
       </c>
       <c r="B353" t="n">
-        <v>0.8813732350427175</v>
+        <v>0.9306854480375218</v>
       </c>
       <c r="C353" t="n">
-        <v>0.00342215037855098</v>
+        <v>0.01819926692175264</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>52.4</v>
+        <v>38.5</v>
       </c>
       <c r="B354" t="n">
-        <v>0.8827606571745515</v>
+        <v>0.9306857873299924</v>
       </c>
       <c r="C354" t="n">
-        <v>0.002366417488134259</v>
+        <v>0.01488673888887088</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>52.5</v>
+        <v>38.6</v>
       </c>
       <c r="B355" t="n">
-        <v>0.8836893042534143</v>
+        <v>0.9306859909054747</v>
       </c>
       <c r="C355" t="n">
-        <v>0.002262756602142307</v>
+        <v>0.008521910762047766</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>52.6</v>
+        <v>38.7</v>
       </c>
       <c r="B356" t="n">
-        <v>0.884152058087427</v>
+        <v>0.9306861130507641</v>
       </c>
       <c r="C356" t="n">
-        <v>0.002463406722078084</v>
+        <v>0.01688422012588486</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>52.7</v>
+        <v>38.8</v>
       </c>
       <c r="B357" t="n">
-        <v>0.885402925246812</v>
+        <v>0.9306861863379378</v>
       </c>
       <c r="C357" t="n">
-        <v>0.002356461410737374</v>
+        <v>0.02086417646676068</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>52.8</v>
+        <v>38.9</v>
       </c>
       <c r="B358" t="n">
-        <v>0.8868951398471582</v>
+        <v>0.930686230310242</v>
       </c>
       <c r="C358" t="n">
-        <v>0.002616847746164319</v>
+        <v>0.01646408691030538</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>52.9</v>
+        <v>39</v>
       </c>
       <c r="B359" t="n">
-        <v>0.8881173287653884</v>
+        <v>0.9306862566936244</v>
       </c>
       <c r="C359" t="n">
-        <v>0.001050871320018132</v>
+        <v>0.01512151281169941</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>53</v>
+        <v>39.1</v>
       </c>
       <c r="B360" t="n">
-        <v>0.8892911665280064</v>
+        <v>0.930686272523654</v>
       </c>
       <c r="C360" t="n">
-        <v>0.003115882897451298</v>
+        <v>0.01793937431571195</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>53.1</v>
+        <v>39.2</v>
       </c>
       <c r="B361" t="n">
-        <v>0.8910665306964746</v>
+        <v>0.9306862820216716</v>
       </c>
       <c r="C361" t="n">
-        <v>0.001747489823835949</v>
+        <v>0.01893697139400407</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>53.2</v>
+        <v>39.3</v>
       </c>
       <c r="B362" t="n">
-        <v>0.8931305408170286</v>
+        <v>0.9306862877204823</v>
       </c>
       <c r="C362" t="n">
-        <v>0.001805623503455241</v>
+        <v>0.01422937574233983</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>53.3</v>
+        <v>39.4</v>
       </c>
       <c r="B363" t="n">
-        <v>0.8949829144496204</v>
+        <v>0.9306862911397686</v>
       </c>
       <c r="C363" t="n">
-        <v>0.001891609115166034</v>
+        <v>0.01438179309151513</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>53.4</v>
+        <v>39.5</v>
       </c>
       <c r="B364" t="n">
-        <v>0.8956548499437216</v>
+        <v>0.9306862931913406</v>
       </c>
       <c r="C364" t="n">
-        <v>0.001381083622378284</v>
+        <v>0.01845054336611937</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>53.5</v>
+        <v>39.6</v>
       </c>
       <c r="B365" t="n">
-        <v>0.896149955644293</v>
+        <v>0.9306862944222836</v>
       </c>
       <c r="C365" t="n">
-        <v>0.001159398695033166</v>
+        <v>0.01947676469307397</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>53.6</v>
+        <v>39.7</v>
       </c>
       <c r="B366" t="n">
-        <v>0.8976033385919656</v>
+        <v>0.9306862951608493</v>
       </c>
       <c r="C366" t="n">
-        <v>0.00194541061979239</v>
+        <v>0.01799439203618104</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>53.7</v>
+        <v>39.8</v>
       </c>
       <c r="B367" t="n">
-        <v>0.8978729813585564</v>
+        <v>0.930686295603989</v>
       </c>
       <c r="C367" t="n">
-        <v>0.001435076658103915</v>
+        <v>0.01457328554237465</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>53.8</v>
+        <v>39.9</v>
       </c>
       <c r="B368" t="n">
-        <v>0.8974289940363569</v>
+        <v>0.9306862958698726</v>
       </c>
       <c r="C368" t="n">
-        <v>0.000502843970750702</v>
+        <v>0.01803537653070013</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>53.9</v>
+        <v>40</v>
       </c>
       <c r="B369" t="n">
-        <v>0.8975581055454522</v>
+        <v>0.9306862960294028</v>
       </c>
       <c r="C369" t="n">
-        <v>0.001169846572358099</v>
+        <v>0.01958831832310318</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>54</v>
+        <v>40.1</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8985310320566695</v>
+        <v>0.9306862961251209</v>
       </c>
       <c r="C370" t="n">
-        <v>0.00149281498618691</v>
+        <v>0.01561747789848248</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>54.1</v>
+        <v>40.2</v>
       </c>
       <c r="B371" t="n">
-        <v>0.8988796149138902</v>
+        <v>0.9306862961825517</v>
       </c>
       <c r="C371" t="n">
-        <v>0.001122634709069651</v>
+        <v>0.01565340969203207</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>54.2</v>
+        <v>40.3</v>
       </c>
       <c r="B372" t="n">
-        <v>0.8990133461103903</v>
+        <v>0.9306862962170104</v>
       </c>
       <c r="C372" t="n">
-        <v>0.0008898659876517335</v>
+        <v>0.01941153002491097</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>54.3</v>
+        <v>40.4</v>
       </c>
       <c r="B373" t="n">
-        <v>0.8997469250359842</v>
+        <v>0.9306862962376856</v>
       </c>
       <c r="C373" t="n">
-        <v>0.001177807648978772</v>
+        <v>0.01758889115097171</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>54.4</v>
+        <v>40.5</v>
       </c>
       <c r="B374" t="n">
-        <v>0.9005221264472894</v>
+        <v>0.9306862962500906</v>
       </c>
       <c r="C374" t="n">
-        <v>0.001369817554355397</v>
+        <v>0.01555613086689378</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>54.5</v>
+        <v>40.6</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9011210948640298</v>
+        <v>0.9306862962575337</v>
       </c>
       <c r="C375" t="n">
-        <v>0.001080700818787338</v>
+        <v>0.0177830095348859</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>54.6</v>
+        <v>40.7</v>
       </c>
       <c r="B376" t="n">
-        <v>0.901572566589222</v>
+        <v>0.9306862962619995</v>
       </c>
       <c r="C376" t="n">
-        <v>0.001306009424147404</v>
+        <v>0.01657780190015194</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>54.7</v>
+        <v>40.8</v>
       </c>
       <c r="B377" t="n">
-        <v>0.9022611253153066</v>
+        <v>0.9306862962646789</v>
       </c>
       <c r="C377" t="n">
-        <v>0.001239705543877491</v>
+        <v>0.008426796363824256</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>54.8</v>
+        <v>40.9</v>
       </c>
       <c r="B378" t="n">
-        <v>0.9031501187711762</v>
+        <v>0.9306862962662867</v>
       </c>
       <c r="C378" t="n">
-        <v>0.001495609603646307</v>
+        <v>0.01717855834074359</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>54.9</v>
+        <v>41</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9036792985374994</v>
+        <v>0.9306862962672513</v>
       </c>
       <c r="C379" t="n">
-        <v>0.001267702632664947</v>
+        <v>0.01539787436118347</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>55</v>
+        <v>41.1</v>
       </c>
       <c r="B380" t="n">
-        <v>0.9038015018957249</v>
+        <v>0.9306862962678301</v>
       </c>
       <c r="C380" t="n">
-        <v>0.001303417739261669</v>
+        <v>0.01431794352216877</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>55.1</v>
+        <v>41.2</v>
       </c>
       <c r="B381" t="n">
-        <v>0.903832058794795</v>
+        <v>0.9306862962681773</v>
       </c>
       <c r="C381" t="n">
-        <v>0.001151985060534072</v>
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>55.2</v>
+        <v>41.3</v>
       </c>
       <c r="B382" t="n">
-        <v>0.9039662651681499</v>
+        <v>0.9306862962683856</v>
       </c>
       <c r="C382" t="n">
-        <v>0.00128304513881617</v>
+        <v>0.0156214251468286</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>55.3</v>
+        <v>41.4</v>
       </c>
       <c r="B383" t="n">
-        <v>0.9038278097686789</v>
+        <v>0.9306862962685107</v>
       </c>
       <c r="C383" t="n">
-        <v>0.00107640048492331</v>
+        <v>0.0188596446485934</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>55.4</v>
+        <v>41.5</v>
       </c>
       <c r="B384" t="n">
-        <v>0.903770672178287</v>
+        <v>0.9306862962685857</v>
       </c>
       <c r="C384" t="n">
-        <v>0.001071478433181834</v>
+        <v>0.00895777587312967</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>55.5</v>
+        <v>41.6</v>
       </c>
       <c r="B385" t="n">
-        <v>0.9044032595752861</v>
+        <v>0.9306862962686306</v>
       </c>
       <c r="C385" t="n">
-        <v>0.001704907932025302</v>
+        <v>0.01902727209509417</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>55.6</v>
+        <v>41.7</v>
       </c>
       <c r="B386" t="n">
-        <v>0.9045859506532108</v>
+        <v>0.9306862962686576</v>
       </c>
       <c r="C386" t="n">
-        <v>0.0013276713037118</v>
+        <v>0.01854740153446567</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>55.7</v>
+        <v>41.8</v>
       </c>
       <c r="B387" t="n">
-        <v>0.9053885914729116</v>
+        <v>0.9306862962686738</v>
       </c>
       <c r="C387" t="n">
-        <v>0.001942248713482957</v>
+        <v>0.01787293232523081</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>55.8</v>
+        <v>41.9</v>
       </c>
       <c r="B388" t="n">
-        <v>0.9052478788419348</v>
+        <v>0.9306862962686836</v>
       </c>
       <c r="C388" t="n">
-        <v>0.001077301104486465</v>
+        <v>0.01666695625715536</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>55.9</v>
+        <v>42</v>
       </c>
       <c r="B389" t="n">
-        <v>0.9055185607976973</v>
+        <v>0.9306862962686894</v>
       </c>
       <c r="C389" t="n">
-        <v>0.0013011121385462</v>
+        <v>0.0164730587137881</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>56</v>
+        <v>42.1</v>
       </c>
       <c r="B390" t="n">
-        <v>0.9053168147648895</v>
+        <v>0.9306862962686929</v>
       </c>
       <c r="C390" t="n">
-        <v>0.001271004628609154</v>
+        <v>0.01709622505005037</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>56.1</v>
+        <v>42.2</v>
       </c>
       <c r="B391" t="n">
-        <v>0.9063580412498049</v>
+        <v>0.9306862962686951</v>
       </c>
       <c r="C391" t="n">
-        <v>0.001671486081245924</v>
+        <v>0.0124035060207303</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>56.2</v>
+        <v>42.3</v>
       </c>
       <c r="B392" t="n">
-        <v>0.9067940513882321</v>
+        <v>0.9306862962686964</v>
       </c>
       <c r="C392" t="n">
-        <v>0.001522652751293062</v>
+        <v>0.01523553095954978</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>56.3</v>
+        <v>42.4</v>
       </c>
       <c r="B393" t="n">
-        <v>0.9078655605020409</v>
+        <v>0.930686296268697</v>
       </c>
       <c r="C393" t="n">
-        <v>0.001837850967702819</v>
+        <v>0.02055641577552656</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>56.4</v>
+        <v>42.5</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9083178836306623</v>
+        <v>0.9306862962686976</v>
       </c>
       <c r="C394" t="n">
-        <v>0.001605684331967005</v>
+        <v>0.01407779193374802</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>56.5</v>
+        <v>42.6</v>
       </c>
       <c r="B395" t="n">
-        <v>0.9084240580316467</v>
+        <v>0.9306862962686978</v>
       </c>
       <c r="C395" t="n">
-        <v>0.001456315509205616</v>
+        <v>0.01897012969783917</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>56.6</v>
+        <v>42.7</v>
       </c>
       <c r="B396" t="n">
-        <v>0.908493362193755</v>
+        <v>0.9306862962686979</v>
       </c>
       <c r="C396" t="n">
-        <v>0.001293712981904544</v>
+        <v>0.01729051657843953</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>56.7</v>
+        <v>42.8</v>
       </c>
       <c r="B397" t="n">
-        <v>0.9088377205188033</v>
+        <v>0.9306862962686981</v>
       </c>
       <c r="C397" t="n">
-        <v>0.001633099994618686</v>
+        <v>0.01026321340682587</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>56.8</v>
+        <v>42.9</v>
       </c>
       <c r="B398" t="n">
-        <v>0.9085115776682113</v>
+        <v>0.9306862962686981</v>
       </c>
       <c r="C398" t="n">
-        <v>0.001096268264857579</v>
+        <v>0.01260837218609381</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.01188004902730315</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.009452075093626304</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.01719676519436246</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.01241157760512557</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.01685948160349092</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.0152613199847804</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.0144520601132218</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.01653350555774121</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.01809943578735334</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.01392941838867186</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.01492999841233634</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.01619090218764576</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.01702762383382405</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.01745953805550004</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.01538693426240304</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.01761071316070525</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.01324165302513398</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.008314345289661637</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.01581337561711024</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.01211549809725996</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.01476896748991669</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.01516402396263318</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.016117825257464</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.01668814169758056</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.01158449838364581</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.01497483550786928</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.01279854988530538</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.01675385246750398</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.01154754562368507</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.01248178592216998</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.009438196998404452</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.01279010576235904</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.0161884721761737</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.01218799028860034</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.01005293099184816</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.01533010222807905</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.01364667206379728</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.01144992976991645</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.01533509313373611</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.01369837109143978</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.01242564388185755</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.01378816475753897</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.01364473590084115</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.9306862962686981</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.0150045586704533</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.9313281745596992</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.01421789117012253</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.9317133015342998</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.01667631016348002</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.9319443777190602</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.009764612225929115</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.9320830234299166</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.01541158804750294</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.9321662108564303</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.01513344970987702</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.9322161233123385</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.01596418347799208</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.9322460707858834</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.0128133432998146</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.9322640392700103</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.01650590266051779</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.9322748203604865</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.01374378611203398</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.9322812890147724</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.009285713853516606</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.9322851702073437</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.0154687109528829</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.9322874989228864</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.01024654329748521</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.9322888961522121</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.01334536123214985</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.9322897344898076</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.01609912598010566</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.9322902374923648</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.01316422100115393</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.9322905392938992</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.007195188353401873</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.9322907203748197</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.01373485453950617</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.9322908290233721</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.0136609293372361</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.9322908942125036</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.01411543491940488</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.9322909333259825</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.01334376669968433</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.9322909567940698</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.01005080506622677</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.9322909708749222</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.01850100411512539</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.9322909793234336</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.01799866965281859</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.9322909843925405</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.01271090657586115</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.9322909874340046</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.01591661458755276</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.9323215683225244</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.0117326403048719</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.9323399168556363</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.01373968828273709</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.9323509259755035</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.01334362059863397</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.9323575314474238</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.01327599386399846</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.9323614947305759</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.006836126724286649</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.9323638727004672</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.01534951774642804</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.932365299482402</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.0127098630067697</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.9323661555515629</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.01216652208119591</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.9323666691930593</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.008606924108561675</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.9323669773779573</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.01362902599697656</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.932367162288896</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.01196197973295234</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.9323672732354593</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.01377320286750585</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.9323673398033973</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.01008213354492591</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.93236737974416</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.01049260715826111</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.9323674037086176</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.009968422702537125</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.9323674180872922</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.01286487891826999</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.9323674267144969</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.01298879090575738</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.9323674318908198</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.009823301630476634</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.9328188430994204</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.01315751593071505</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.9330896898245807</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.01199311981665664</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.9332521978596769</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.009646704684305533</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.9333497026807347</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.01223833383238229</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.9334082055733693</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.01218846522823902</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.9334433073089501</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.0100296263064743</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.9334643683502986</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.009012817263997207</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.9334770049751077</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.0100316688462889</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.9334845869499931</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.008984426337790653</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.9334891361349245</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.005504100189281825</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.9334918656458832</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.006287920705158104</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.9334935033524584</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.01303002986354393</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.9334944859764036</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.01175061469637996</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.9334950755507707</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.003128483055117264</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.933495429295391</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.01224553453019574</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.9334956415421631</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.01181457554681645</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.9334957688902265</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.001726266136535523</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.9334958452990644</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.008469813986098374</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.933495891144367</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.01025117670991657</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.9334959186515487</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.01170956528966012</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.9336078194466665</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.009040394505592348</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.9336749599237372</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.0101838688596487</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.9337152442099796</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.01168106405540848</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.9337394147817252</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.009766508517289166</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.9337539171247725</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.008477692719224002</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.9337626185306008</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.007810373242799458</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.9337678393740979</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.00872767347968563</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.933770971880196</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.007410488890554717</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.9337728513838549</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.01129705874724667</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0.9337739790860503</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.01263089941889023</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.9337746557073675</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.009730960081552383</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0.9337750616801578</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.008037215177660404</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0.9337753052638319</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.009950369647240583</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0.9337754514140364</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.01156114341123614</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.9337755391041593</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.00939071014786916</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.933775591718233</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.0108367023410334</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.9337756232866772</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.0089193327464202</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.9337756422277437</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.008668317797048948</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.9337756535923836</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.008437401973019207</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.9337756604111674</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.007844836351442227</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.9337756645024378</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.003625170302084318</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.9337756669572</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.008662043372858606</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.9337756684300574</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.009909863468368691</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.9337756693137719</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.0101315263616494</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.9337756698440005</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.009388402841210884</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.9337756701621377</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.009371815907722085</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.93377567035302</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.007618607918605787</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.9337756704675494</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.009651805324155476</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.9340798964907311</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.007398102880026885</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.9342624321046401</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.009659382991349766</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.9352219591306731</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.006140095752660742</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.9357976753462928</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.005888191090223764</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
         <v>56.9</v>
       </c>
-      <c r="B399" t="n">
-        <v>0.9079343363840807</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0.00172836046308258</v>
+      <c r="B538" t="n">
+        <v>0.9361431050756647</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.0071543955659144</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.9363503629132879</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.007707660252984531</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.9364747176158618</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.005677462139416072</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.9365493304374061</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.009523486948241512</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.9365940981303327</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.009430900719026105</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.9366209587460886</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.008344887857208284</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.9366370751155422</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.001921268937415932</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.9366467449372144</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.0072965462851</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.9366525468302178</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.007653976108897557</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.9366560279660199</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.00618209104590672</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.936658116647501</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.005551275352269255</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.9366593698563896</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.004709037005619012</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.9366601217817229</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.005740033997422337</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.9366605729369227</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.009311116254262052</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.9366608436300428</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.008555222462681721</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.9366610060459148</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.007033738709740727</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.936661103495438</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.006152453910666959</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.9366611619651518</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.006808573183374254</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.9366611970469801</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.003263197393086026</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.9366612180960772</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.006444769249939033</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.9366612307255353</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.005938745353684072</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.936772714916742</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.006039573404538598</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.9371399087353148</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.006962678385300812</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.9373602250264585</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.006327297407078588</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.9374924148011449</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.006148142741330244</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.9375717286659565</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.005799448644997097</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.938884771065613</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.005017600333019268</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.9396725965054068</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.003007011099055498</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.9401452917692833</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.004901303901992012</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.9404289089276091</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.006116489973148706</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.9405990792226046</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.007941179298040311</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.9407011813996018</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.003221743228035838</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.9407624427058001</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.006514462113233904</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.9407991994895193</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.007255696457512098</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.9408212535597507</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.004918009498455809</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.9408344860018895</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.006080985595177354</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.9408424254671727</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.007011478522899461</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="B575" t="n">
+        <v>0.9408471891463428</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.004740958935641373</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.9408500473538447</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.005502882634086156</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="B577" t="n">
+        <v>0.940851762278346</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.004413317574066713</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0.9408527912330467</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.00587883060358966</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B579" t="n">
+        <v>0.9408534086058671</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.006220493932677173</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="B580" t="n">
+        <v>0.9408537790295594</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.006446695050616552</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.9408540012837747</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.00356360791891111</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="B582" t="n">
+        <v>0.9408541346363039</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.004393361382705085</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.9408542146478215</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.00363360164331753</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="B584" t="n">
+        <v>0.9408542626547319</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.006166753133713774</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0.9408542914588782</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.005640857645779655</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="B586" t="n">
+        <v>0.940854308741366</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.004174158580394127</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="B587" t="n">
+        <v>0.9408543191108586</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.002633343472281295</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0.9408543253325543</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.004002172750442764</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0.9408543290655718</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.005316970307536492</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="B590" t="n">
+        <v>0.9408543313053822</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.002513704351656446</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0.9408543326492685</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.004877880791543893</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0.9408543334556002</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.002211040905079154</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0.9408543339393992</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.002882316776010603</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0.9408543342296786</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.004445835327950023</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0.9408543344038464</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.003210864963475178</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="B596" t="n">
+        <v>0.9408543345083469</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.004584557059698601</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0.9408543345710473</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.005320040874817105</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0.9408543346086675</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.003194183772798833</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B599" t="n">
+        <v>0.9408543346312397</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.007273948157537374</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="B600" t="n">
+        <v>0.940854334644783</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.004774433295315593</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="B601" t="n">
+        <v>0.9408543346529089</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.003732737595871507</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="B602" t="n">
+        <v>0.9408543346577846</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.00383807341089374</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="B603" t="n">
+        <v>0.9408543346607098</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.00325457201840528</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="B604" t="n">
+        <v>0.940854334662465</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.00325647755578304</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="B605" t="n">
+        <v>0.9408543346635181</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.004697952374883586</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0.9408543346641499</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.003301618705958309</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="B607" t="n">
+        <v>0.9408543346645289</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.003028935548751626</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0.9408543346647565</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.003383889936508443</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B609" t="n">
+        <v>0.940854334664893</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.00191015737055159</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0.9408543346649748</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.004441797490846164</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0.9408543346650241</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.001989009605181954</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="B612" t="n">
+        <v>0.9408543346650535</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.003490741010876598</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0.940855696228485</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.003307098825906339</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0.9408565131665438</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.002448649257523479</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0.9408570033293792</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.003831102568529515</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.9408572974270804</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.001808134345975937</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0.9408574738857011</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.002459680438957555</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="B618" t="n">
+        <v>0.9408575797608735</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.003184158363198192</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B619" t="n">
+        <v>0.9408576432859769</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.003035250120282643</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0.940857681401039</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.002188687475905861</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0.9408577042700763</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.003069563094664435</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="B622" t="n">
+        <v>0.9408577179914986</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.002049727264891318</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="B623" t="n">
+        <v>0.940857726224352</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.002941529457069228</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="B624" t="n">
+        <v>0.9410961205127574</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.00246679836118457</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="B625" t="n">
+        <v>0.9412391570858005</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.001706672916523106</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0.9413249790296266</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.002569244401967328</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="B627" t="n">
+        <v>0.9413764721959221</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.003072960819437047</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0.9414073680956996</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.001918137440257233</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B629" t="n">
+        <v>0.9414259056355661</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.002208948185234321</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="B630" t="n">
+        <v>0.9414370281594859</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.002262461712265069</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0.9414437016738378</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.002726511879314099</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0.9420860812616684</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.002487639917238525</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0.9424715090143667</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.002226220762896804</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0.9427027656659858</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.001771241371141028</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.9428415196569571</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.001574054345649828</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0.9429247720515398</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.002695636246346407</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.9429747234882896</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.002177248959894764</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.9430046943503393</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.002195976804390704</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.9430226768675692</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.001956532970363442</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.9430334663779073</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.002114340929650239</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.94303994008411</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.002550583698029938</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.9430438243078317</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.002306680913416777</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.9430461548420647</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.00232482239816361</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.9430475531626044</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.001843015483539409</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.9430483921549283</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.001899158901850815</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0.9430488955503227</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.002102712657269709</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.9430491975875593</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.002089844224055911</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.9430493788099011</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.002097756633900875</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.9430494875433064</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.001730357061766775</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.9430495527833495</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.002171951679643861</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.9430495919273753</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.001733402904557938</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0.9430496154137907</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.001074366709450228</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.94304962950564</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.0021621661738186</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.9430496379607497</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.00172183687796994</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.9430496430338154</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.001524858352492739</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.9430496460776548</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.002046947521751036</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.9430496479039586</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.002154339215848957</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.9430496489997408</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.001847402036550028</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.9430496496572101</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.001731855646447226</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.9430496500516916</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.001637143581769185</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0.9430496502883807</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.001533965575711315</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.943049650430394</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.001932490919897014</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.9430496505156022</v>
+      </c>
+      <c r="C663" t="n">
+        <v>0.002227716825950444</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.943049650566727</v>
+      </c>
+      <c r="C664" t="n">
+        <v>0.00129122078719882</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.9430496505974018</v>
+      </c>
+      <c r="C665" t="n">
+        <v>0.001750339622859852</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0.9445845850328503</v>
+      </c>
+      <c r="C666" t="n">
+        <v>0.002191321733501941</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0.9455055456941196</v>
+      </c>
+      <c r="C667" t="n">
+        <v>0.002048485820502098</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.946058122090881</v>
+      </c>
+      <c r="C668" t="n">
+        <v>0.001359580322947444</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.946389667928938</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.00140782906509917</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.946588595431772</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.00120079312296343</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.9467079519334725</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.001358447700211249</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.9467795658344927</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.001769448813529953</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.9468225341751049</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.000539841733460622</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.9468483151794721</v>
+      </c>
+      <c r="C674" t="n">
+        <v>0.0008745858572593178</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.9468637837820925</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0.001543323031805307</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.9468730649436647</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0.001084664316151945</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.9473633197874324</v>
+      </c>
+      <c r="C677" t="n">
+        <v>0.001919672638057719</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0.9476574726936929</v>
+      </c>
+      <c r="C678" t="n">
+        <v>0.00193344360016832</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0.9478339644374493</v>
+      </c>
+      <c r="C679" t="n">
+        <v>0.001159223373836662</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.9479398594837031</v>
+      </c>
+      <c r="C680" t="n">
+        <v>0.0004069289180123615</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.9480033965114554</v>
+      </c>
+      <c r="C681" t="n">
+        <v>0.0009078235785662354</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.9480415187281067</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.001919904397292592</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.9480643920580976</v>
+      </c>
+      <c r="C683" t="n">
+        <v>0.001001638106230797</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.9480781160560919</v>
+      </c>
+      <c r="C684" t="n">
+        <v>0.000829623161956</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0.9480863504548885</v>
+      </c>
+      <c r="C685" t="n">
+        <v>9.7163837780258e-05</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0.9480912910941665</v>
+      </c>
+      <c r="C686" t="n">
+        <v>9.7163837780258e-05</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.9480942554777334</v>
+      </c>
+      <c r="C687" t="n">
+        <v>9.7163837780258e-05</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.9480960341078735</v>
+      </c>
+      <c r="C688" t="n">
+        <v>9.7163837780258e-05</v>
       </c>
     </row>
   </sheetData>
